--- a/theta_to_grayscale_lookup_with_degrees.xlsx
+++ b/theta_to_grayscale_lookup_with_degrees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01231997119054821</v>
+        <v>0.01227184630308513</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01231997119054821</v>
+        <v>0.01227184630308513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02463994238109642</v>
+        <v>0.02454369260617026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.703125</v>
       </c>
       <c r="E3" t="n">
-        <v>1.411764705882353</v>
+        <v>1.40625</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02463994238109642</v>
+        <v>0.02454369260617026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03695991357164462</v>
+        <v>0.03681553890925539</v>
       </c>
       <c r="D4" t="n">
-        <v>1.411764705882353</v>
+        <v>1.40625</v>
       </c>
       <c r="E4" t="n">
-        <v>2.117647058823529</v>
+        <v>2.109375</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03695991357164462</v>
+        <v>0.03681553890925539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04927988476219283</v>
+        <v>0.04908738521234052</v>
       </c>
       <c r="D5" t="n">
-        <v>2.117647058823529</v>
+        <v>2.109375</v>
       </c>
       <c r="E5" t="n">
-        <v>2.823529411764706</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04927988476219283</v>
+        <v>0.04908738521234052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06159985595274104</v>
+        <v>0.06135923151542565</v>
       </c>
       <c r="D6" t="n">
-        <v>2.823529411764706</v>
+        <v>2.8125</v>
       </c>
       <c r="E6" t="n">
-        <v>3.529411764705882</v>
+        <v>3.515625</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06159985595274104</v>
+        <v>0.06135923151542565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07391982714328925</v>
+        <v>0.07363107781851078</v>
       </c>
       <c r="D7" t="n">
-        <v>3.529411764705882</v>
+        <v>3.515625</v>
       </c>
       <c r="E7" t="n">
-        <v>4.235294117647059</v>
+        <v>4.21875</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07391982714328925</v>
+        <v>0.07363107781851078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08623979833383746</v>
+        <v>0.08590292412159591</v>
       </c>
       <c r="D8" t="n">
-        <v>4.235294117647059</v>
+        <v>4.21875</v>
       </c>
       <c r="E8" t="n">
-        <v>4.941176470588236</v>
+        <v>4.921875</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08623979833383746</v>
+        <v>0.08590292412159591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09855976952438567</v>
+        <v>0.09817477042468103</v>
       </c>
       <c r="D9" t="n">
-        <v>4.941176470588236</v>
+        <v>4.921875</v>
       </c>
       <c r="E9" t="n">
-        <v>5.647058823529411</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09855976952438567</v>
+        <v>0.09817477042468103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1108797407149339</v>
+        <v>0.1104466167277662</v>
       </c>
       <c r="D10" t="n">
-        <v>5.647058823529411</v>
+        <v>5.625</v>
       </c>
       <c r="E10" t="n">
-        <v>6.352941176470588</v>
+        <v>6.328125</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1108797407149339</v>
+        <v>0.1104466167277662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1231997119054821</v>
+        <v>0.1227184630308513</v>
       </c>
       <c r="D11" t="n">
-        <v>6.352941176470588</v>
+        <v>6.328125</v>
       </c>
       <c r="E11" t="n">
-        <v>7.058823529411764</v>
+        <v>7.03125</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1231997119054821</v>
+        <v>0.1227184630308513</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1355196830960303</v>
+        <v>0.1349903093339364</v>
       </c>
       <c r="D12" t="n">
-        <v>7.058823529411764</v>
+        <v>7.03125</v>
       </c>
       <c r="E12" t="n">
-        <v>7.764705882352941</v>
+        <v>7.734374999999999</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1355196830960303</v>
+        <v>0.1349903093339364</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1478396542865785</v>
+        <v>0.1472621556370216</v>
       </c>
       <c r="D13" t="n">
-        <v>7.764705882352941</v>
+        <v>7.734374999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>8.470588235294118</v>
+        <v>8.4375</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1478396542865785</v>
+        <v>0.1472621556370216</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1601596254771267</v>
+        <v>0.1595340019401067</v>
       </c>
       <c r="D14" t="n">
-        <v>8.470588235294118</v>
+        <v>8.4375</v>
       </c>
       <c r="E14" t="n">
-        <v>9.176470588235293</v>
+        <v>9.140625</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1601596254771267</v>
+        <v>0.1595340019401067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1724795966676749</v>
+        <v>0.1718058482431918</v>
       </c>
       <c r="D15" t="n">
-        <v>9.176470588235293</v>
+        <v>9.140625</v>
       </c>
       <c r="E15" t="n">
-        <v>9.882352941176471</v>
+        <v>9.84375</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1724795966676749</v>
+        <v>0.1718058482431918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1847995678582231</v>
+        <v>0.1840776945462769</v>
       </c>
       <c r="D16" t="n">
-        <v>9.882352941176471</v>
+        <v>9.84375</v>
       </c>
       <c r="E16" t="n">
-        <v>10.58823529411765</v>
+        <v>10.546875</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1847995678582231</v>
+        <v>0.1840776945462769</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1971195390487713</v>
+        <v>0.1963495408493621</v>
       </c>
       <c r="D17" t="n">
-        <v>10.58823529411765</v>
+        <v>10.546875</v>
       </c>
       <c r="E17" t="n">
-        <v>11.29411764705882</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1971195390487713</v>
+        <v>0.1963495408493621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2094395102393195</v>
+        <v>0.2086213871524472</v>
       </c>
       <c r="D18" t="n">
-        <v>11.29411764705882</v>
+        <v>11.25</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2094395102393195</v>
+        <v>0.2086213871524472</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2217594814298677</v>
+        <v>0.2208932334555323</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="E19" t="n">
-        <v>12.70588235294118</v>
+        <v>12.65625</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2217594814298677</v>
+        <v>0.2208932334555323</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234079452620416</v>
+        <v>0.2331650797586174</v>
       </c>
       <c r="D20" t="n">
-        <v>12.70588235294118</v>
+        <v>12.65625</v>
       </c>
       <c r="E20" t="n">
-        <v>13.41176470588235</v>
+        <v>13.359375</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.234079452620416</v>
+        <v>0.2331650797586174</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2463994238109642</v>
+        <v>0.2454369260617026</v>
       </c>
       <c r="D21" t="n">
-        <v>13.41176470588235</v>
+        <v>13.359375</v>
       </c>
       <c r="E21" t="n">
-        <v>14.11764705882353</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2463994238109642</v>
+        <v>0.2454369260617026</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2587193950015124</v>
+        <v>0.2577087723647877</v>
       </c>
       <c r="D22" t="n">
-        <v>14.11764705882353</v>
+        <v>14.0625</v>
       </c>
       <c r="E22" t="n">
-        <v>14.8235294117647</v>
+        <v>14.765625</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2587193950015124</v>
+        <v>0.2577087723647877</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2710393661920606</v>
+        <v>0.2699806186678728</v>
       </c>
       <c r="D23" t="n">
-        <v>14.8235294117647</v>
+        <v>14.765625</v>
       </c>
       <c r="E23" t="n">
-        <v>15.52941176470588</v>
+        <v>15.46875</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2710393661920606</v>
+        <v>0.2699806186678728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2833593373826088</v>
+        <v>0.282252464970958</v>
       </c>
       <c r="D24" t="n">
-        <v>15.52941176470588</v>
+        <v>15.46875</v>
       </c>
       <c r="E24" t="n">
-        <v>16.23529411764706</v>
+        <v>16.171875</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2833593373826088</v>
+        <v>0.282252464970958</v>
       </c>
       <c r="C25" t="n">
-        <v>0.295679308573157</v>
+        <v>0.2945243112740431</v>
       </c>
       <c r="D25" t="n">
-        <v>16.23529411764706</v>
+        <v>16.171875</v>
       </c>
       <c r="E25" t="n">
-        <v>16.94117647058824</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.295679308573157</v>
+        <v>0.2945243112740431</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3079992797637052</v>
+        <v>0.3067961575771282</v>
       </c>
       <c r="D26" t="n">
-        <v>16.94117647058824</v>
+        <v>16.875</v>
       </c>
       <c r="E26" t="n">
-        <v>17.64705882352941</v>
+        <v>17.578125</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3079992797637052</v>
+        <v>0.3067961575771282</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3203192509542534</v>
+        <v>0.3190680038802134</v>
       </c>
       <c r="D27" t="n">
-        <v>17.64705882352941</v>
+        <v>17.578125</v>
       </c>
       <c r="E27" t="n">
-        <v>18.35294117647059</v>
+        <v>18.28125</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3203192509542534</v>
+        <v>0.3190680038802134</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3326392221448016</v>
+        <v>0.3313398501832985</v>
       </c>
       <c r="D28" t="n">
-        <v>18.35294117647059</v>
+        <v>18.28125</v>
       </c>
       <c r="E28" t="n">
-        <v>19.05882352941176</v>
+        <v>18.984375</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3326392221448016</v>
+        <v>0.3313398501832985</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3449591933353499</v>
+        <v>0.3436116964863836</v>
       </c>
       <c r="D29" t="n">
-        <v>19.05882352941176</v>
+        <v>18.984375</v>
       </c>
       <c r="E29" t="n">
-        <v>19.76470588235294</v>
+        <v>19.6875</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3449591933353499</v>
+        <v>0.3436116964863836</v>
       </c>
       <c r="C30" t="n">
-        <v>0.357279164525898</v>
+        <v>0.3558835427894688</v>
       </c>
       <c r="D30" t="n">
-        <v>19.76470588235294</v>
+        <v>19.6875</v>
       </c>
       <c r="E30" t="n">
-        <v>20.47058823529412</v>
+        <v>20.390625</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.357279164525898</v>
+        <v>0.3558835427894688</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3695991357164463</v>
+        <v>0.3681553890925539</v>
       </c>
       <c r="D31" t="n">
-        <v>20.47058823529412</v>
+        <v>20.390625</v>
       </c>
       <c r="E31" t="n">
-        <v>21.17647058823529</v>
+        <v>21.09375</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3695991357164463</v>
+        <v>0.3681553890925539</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3819191069069944</v>
+        <v>0.380427235395639</v>
       </c>
       <c r="D32" t="n">
-        <v>21.17647058823529</v>
+        <v>21.09375</v>
       </c>
       <c r="E32" t="n">
-        <v>21.88235294117647</v>
+        <v>21.796875</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3819191069069944</v>
+        <v>0.380427235395639</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3942390780975427</v>
+        <v>0.3926990816987241</v>
       </c>
       <c r="D33" t="n">
-        <v>21.88235294117647</v>
+        <v>21.796875</v>
       </c>
       <c r="E33" t="n">
-        <v>22.58823529411764</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3942390780975427</v>
+        <v>0.3926990816987241</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4065590492880909</v>
+        <v>0.4049709280018093</v>
       </c>
       <c r="D34" t="n">
-        <v>22.58823529411764</v>
+        <v>22.5</v>
       </c>
       <c r="E34" t="n">
-        <v>23.29411764705883</v>
+        <v>23.203125</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4065590492880909</v>
+        <v>0.4049709280018093</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4188790204786391</v>
+        <v>0.4172427743048944</v>
       </c>
       <c r="D35" t="n">
-        <v>23.29411764705883</v>
+        <v>23.203125</v>
       </c>
       <c r="E35" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4188790204786391</v>
+        <v>0.4172427743048944</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4311989916691873</v>
+        <v>0.4295146206079795</v>
       </c>
       <c r="D36" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="E36" t="n">
-        <v>24.70588235294118</v>
+        <v>24.609375</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4311989916691873</v>
+        <v>0.4295146206079795</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4435189628597355</v>
+        <v>0.4417864669110647</v>
       </c>
       <c r="D37" t="n">
-        <v>24.70588235294118</v>
+        <v>24.609375</v>
       </c>
       <c r="E37" t="n">
-        <v>25.41176470588235</v>
+        <v>25.3125</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4435189628597355</v>
+        <v>0.4417864669110647</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4558389340502837</v>
+        <v>0.4540583132141498</v>
       </c>
       <c r="D38" t="n">
-        <v>25.41176470588235</v>
+        <v>25.3125</v>
       </c>
       <c r="E38" t="n">
-        <v>26.11764705882353</v>
+        <v>26.015625</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4558389340502837</v>
+        <v>0.4540583132141498</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4681589052408319</v>
+        <v>0.4663301595172349</v>
       </c>
       <c r="D39" t="n">
-        <v>26.11764705882353</v>
+        <v>26.015625</v>
       </c>
       <c r="E39" t="n">
-        <v>26.82352941176471</v>
+        <v>26.71875</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4681589052408319</v>
+        <v>0.4663301595172349</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4804788764313801</v>
+        <v>0.47860200582032</v>
       </c>
       <c r="D40" t="n">
-        <v>26.82352941176471</v>
+        <v>26.71875</v>
       </c>
       <c r="E40" t="n">
-        <v>27.52941176470588</v>
+        <v>27.421875</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4804788764313801</v>
+        <v>0.47860200582032</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4927988476219283</v>
+        <v>0.4908738521234052</v>
       </c>
       <c r="D41" t="n">
-        <v>27.52941176470588</v>
+        <v>27.421875</v>
       </c>
       <c r="E41" t="n">
-        <v>28.23529411764706</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4927988476219283</v>
+        <v>0.4908738521234052</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5051188188124766</v>
+        <v>0.5031456984264903</v>
       </c>
       <c r="D42" t="n">
-        <v>28.23529411764706</v>
+        <v>28.125</v>
       </c>
       <c r="E42" t="n">
-        <v>28.94117647058824</v>
+        <v>28.828125</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5051188188124766</v>
+        <v>0.5031456984264903</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5174387900030247</v>
+        <v>0.5154175447295755</v>
       </c>
       <c r="D43" t="n">
-        <v>28.94117647058824</v>
+        <v>28.828125</v>
       </c>
       <c r="E43" t="n">
-        <v>29.64705882352941</v>
+        <v>29.53125</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5174387900030247</v>
+        <v>0.5154175447295755</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5297587611935729</v>
+        <v>0.5276893910326605</v>
       </c>
       <c r="D44" t="n">
-        <v>29.64705882352941</v>
+        <v>29.53125</v>
       </c>
       <c r="E44" t="n">
-        <v>30.35294117647058</v>
+        <v>30.234375</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5297587611935729</v>
+        <v>0.5276893910326605</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5420787323841212</v>
+        <v>0.5399612373357456</v>
       </c>
       <c r="D45" t="n">
-        <v>30.35294117647058</v>
+        <v>30.234375</v>
       </c>
       <c r="E45" t="n">
-        <v>31.05882352941176</v>
+        <v>30.9375</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5420787323841212</v>
+        <v>0.5399612373357456</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5543987035746694</v>
+        <v>0.5522330836388308</v>
       </c>
       <c r="D46" t="n">
-        <v>31.05882352941176</v>
+        <v>30.9375</v>
       </c>
       <c r="E46" t="n">
-        <v>31.76470588235294</v>
+        <v>31.640625</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5543987035746694</v>
+        <v>0.5522330836388308</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5667186747652175</v>
+        <v>0.5645049299419159</v>
       </c>
       <c r="D47" t="n">
-        <v>31.76470588235294</v>
+        <v>31.640625</v>
       </c>
       <c r="E47" t="n">
-        <v>32.47058823529412</v>
+        <v>32.34375</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5667186747652175</v>
+        <v>0.5645049299419159</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5790386459557658</v>
+        <v>0.5767767762450011</v>
       </c>
       <c r="D48" t="n">
-        <v>32.47058823529412</v>
+        <v>32.34375</v>
       </c>
       <c r="E48" t="n">
-        <v>33.1764705882353</v>
+        <v>33.046875</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5790386459557658</v>
+        <v>0.5767767762450011</v>
       </c>
       <c r="C49" t="n">
-        <v>0.591358617146314</v>
+        <v>0.5890486225480862</v>
       </c>
       <c r="D49" t="n">
-        <v>33.1764705882353</v>
+        <v>33.046875</v>
       </c>
       <c r="E49" t="n">
-        <v>33.88235294117647</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.591358617146314</v>
+        <v>0.5890486225480862</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6036785883368622</v>
+        <v>0.6013204688511713</v>
       </c>
       <c r="D50" t="n">
-        <v>33.88235294117647</v>
+        <v>33.75</v>
       </c>
       <c r="E50" t="n">
-        <v>34.58823529411764</v>
+        <v>34.453125</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6036785883368622</v>
+        <v>0.6013204688511713</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6159985595274104</v>
+        <v>0.6135923151542565</v>
       </c>
       <c r="D51" t="n">
-        <v>34.58823529411764</v>
+        <v>34.453125</v>
       </c>
       <c r="E51" t="n">
-        <v>35.29411764705883</v>
+        <v>35.15625</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6159985595274104</v>
+        <v>0.6135923151542565</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6283185307179586</v>
+        <v>0.6258641614573416</v>
       </c>
       <c r="D52" t="n">
-        <v>35.29411764705883</v>
+        <v>35.15625</v>
       </c>
       <c r="E52" t="n">
-        <v>36</v>
+        <v>35.859375</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6283185307179586</v>
+        <v>0.6258641614573416</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6406385019085068</v>
+        <v>0.6381360077604268</v>
       </c>
       <c r="D53" t="n">
-        <v>36</v>
+        <v>35.859375</v>
       </c>
       <c r="E53" t="n">
-        <v>36.70588235294117</v>
+        <v>36.5625</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6406385019085068</v>
+        <v>0.6381360077604268</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6529584730990551</v>
+        <v>0.6504078540635119</v>
       </c>
       <c r="D54" t="n">
-        <v>36.70588235294117</v>
+        <v>36.5625</v>
       </c>
       <c r="E54" t="n">
-        <v>37.41176470588236</v>
+        <v>37.265625</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6529584730990551</v>
+        <v>0.6504078540635119</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6652784442896033</v>
+        <v>0.662679700366597</v>
       </c>
       <c r="D55" t="n">
-        <v>37.41176470588236</v>
+        <v>37.265625</v>
       </c>
       <c r="E55" t="n">
-        <v>38.11764705882353</v>
+        <v>37.96875</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6652784442896033</v>
+        <v>0.662679700366597</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6775984154801514</v>
+        <v>0.6749515466696822</v>
       </c>
       <c r="D56" t="n">
-        <v>38.11764705882353</v>
+        <v>37.96875</v>
       </c>
       <c r="E56" t="n">
-        <v>38.8235294117647</v>
+        <v>38.671875</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6775984154801514</v>
+        <v>0.6749515466696822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6899183866706997</v>
+        <v>0.6872233929727672</v>
       </c>
       <c r="D57" t="n">
-        <v>38.8235294117647</v>
+        <v>38.671875</v>
       </c>
       <c r="E57" t="n">
-        <v>39.52941176470588</v>
+        <v>39.375</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6899183866706997</v>
+        <v>0.6872233929727672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7022383578612479</v>
+        <v>0.6994952392758523</v>
       </c>
       <c r="D58" t="n">
-        <v>39.52941176470588</v>
+        <v>39.375</v>
       </c>
       <c r="E58" t="n">
-        <v>40.23529411764706</v>
+        <v>40.078125</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7022383578612479</v>
+        <v>0.6994952392758523</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7145583290517961</v>
+        <v>0.7117670855789375</v>
       </c>
       <c r="D59" t="n">
-        <v>40.23529411764706</v>
+        <v>40.078125</v>
       </c>
       <c r="E59" t="n">
-        <v>40.94117647058823</v>
+        <v>40.78125</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7145583290517961</v>
+        <v>0.7117670855789375</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7268783002423442</v>
+        <v>0.7240389318820226</v>
       </c>
       <c r="D60" t="n">
-        <v>40.94117647058823</v>
+        <v>40.78125</v>
       </c>
       <c r="E60" t="n">
-        <v>41.64705882352941</v>
+        <v>41.484375</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7268783002423442</v>
+        <v>0.7240389318820226</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7391982714328925</v>
+        <v>0.7363107781851077</v>
       </c>
       <c r="D61" t="n">
-        <v>41.64705882352941</v>
+        <v>41.484375</v>
       </c>
       <c r="E61" t="n">
-        <v>42.35294117647059</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7391982714328925</v>
+        <v>0.7363107781851077</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7515182426234407</v>
+        <v>0.7485826244881929</v>
       </c>
       <c r="D62" t="n">
-        <v>42.35294117647059</v>
+        <v>42.1875</v>
       </c>
       <c r="E62" t="n">
-        <v>43.05882352941176</v>
+        <v>42.890625</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7515182426234407</v>
+        <v>0.7485826244881929</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7638382138139889</v>
+        <v>0.760854470791278</v>
       </c>
       <c r="D63" t="n">
-        <v>43.05882352941176</v>
+        <v>42.890625</v>
       </c>
       <c r="E63" t="n">
-        <v>43.76470588235293</v>
+        <v>43.59375</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7638382138139889</v>
+        <v>0.760854470791278</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7761581850045371</v>
+        <v>0.7731263170943632</v>
       </c>
       <c r="D64" t="n">
-        <v>43.76470588235293</v>
+        <v>43.59375</v>
       </c>
       <c r="E64" t="n">
-        <v>44.47058823529412</v>
+        <v>44.296875</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7761581850045371</v>
+        <v>0.7731263170943632</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7884781561950853</v>
+        <v>0.7853981633974483</v>
       </c>
       <c r="D65" t="n">
-        <v>44.47058823529412</v>
+        <v>44.296875</v>
       </c>
       <c r="E65" t="n">
-        <v>45.17647058823529</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7884781561950853</v>
+        <v>0.7853981633974483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8007981273856335</v>
+        <v>0.7976700097005334</v>
       </c>
       <c r="D66" t="n">
-        <v>45.17647058823529</v>
+        <v>45</v>
       </c>
       <c r="E66" t="n">
-        <v>45.88235294117647</v>
+        <v>45.703125</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8007981273856335</v>
+        <v>0.7976700097005334</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8131180985761818</v>
+        <v>0.8099418560036186</v>
       </c>
       <c r="D67" t="n">
-        <v>45.88235294117647</v>
+        <v>45.703125</v>
       </c>
       <c r="E67" t="n">
-        <v>46.58823529411765</v>
+        <v>46.40625</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8131180985761818</v>
+        <v>0.8099418560036186</v>
       </c>
       <c r="C68" t="n">
-        <v>0.82543806976673</v>
+        <v>0.8222137023067037</v>
       </c>
       <c r="D68" t="n">
-        <v>46.58823529411765</v>
+        <v>46.40625</v>
       </c>
       <c r="E68" t="n">
-        <v>47.29411764705883</v>
+        <v>47.109375</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.82543806976673</v>
+        <v>0.8222137023067037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8377580409572781</v>
+        <v>0.8344855486097889</v>
       </c>
       <c r="D69" t="n">
-        <v>47.29411764705883</v>
+        <v>47.109375</v>
       </c>
       <c r="E69" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8377580409572781</v>
+        <v>0.8344855486097889</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8500780121478264</v>
+        <v>0.8467573949128739</v>
       </c>
       <c r="D70" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
       <c r="E70" t="n">
-        <v>48.70588235294118</v>
+        <v>48.515625</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8500780121478264</v>
+        <v>0.8467573949128739</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8623979833383746</v>
+        <v>0.859029241215959</v>
       </c>
       <c r="D71" t="n">
-        <v>48.70588235294118</v>
+        <v>48.515625</v>
       </c>
       <c r="E71" t="n">
-        <v>49.41176470588236</v>
+        <v>49.21875</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8623979833383746</v>
+        <v>0.859029241215959</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8747179545289228</v>
+        <v>0.8713010875190442</v>
       </c>
       <c r="D72" t="n">
-        <v>49.41176470588236</v>
+        <v>49.21875</v>
       </c>
       <c r="E72" t="n">
-        <v>50.11764705882353</v>
+        <v>49.921875</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8747179545289228</v>
+        <v>0.8713010875190442</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8870379257194709</v>
+        <v>0.8835729338221293</v>
       </c>
       <c r="D73" t="n">
-        <v>50.11764705882353</v>
+        <v>49.921875</v>
       </c>
       <c r="E73" t="n">
-        <v>50.8235294117647</v>
+        <v>50.625</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8870379257194709</v>
+        <v>0.8835729338221293</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8993578969100192</v>
+        <v>0.8958447801252144</v>
       </c>
       <c r="D74" t="n">
-        <v>50.8235294117647</v>
+        <v>50.625</v>
       </c>
       <c r="E74" t="n">
-        <v>51.52941176470588</v>
+        <v>51.328125</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8993578969100192</v>
+        <v>0.8958447801252144</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9116778681005674</v>
+        <v>0.9081166264282996</v>
       </c>
       <c r="D75" t="n">
-        <v>51.52941176470588</v>
+        <v>51.328125</v>
       </c>
       <c r="E75" t="n">
-        <v>52.23529411764706</v>
+        <v>52.03125</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9116778681005674</v>
+        <v>0.9081166264282996</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9239978392911156</v>
+        <v>0.9203884727313847</v>
       </c>
       <c r="D76" t="n">
-        <v>52.23529411764706</v>
+        <v>52.03125</v>
       </c>
       <c r="E76" t="n">
-        <v>52.94117647058823</v>
+        <v>52.734375</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9239978392911156</v>
+        <v>0.9203884727313847</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9363178104816638</v>
+        <v>0.9326603190344698</v>
       </c>
       <c r="D77" t="n">
-        <v>52.94117647058823</v>
+        <v>52.734375</v>
       </c>
       <c r="E77" t="n">
-        <v>53.64705882352941</v>
+        <v>53.4375</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9363178104816638</v>
+        <v>0.9326603190344698</v>
       </c>
       <c r="C78" t="n">
-        <v>0.948637781672212</v>
+        <v>0.944932165337555</v>
       </c>
       <c r="D78" t="n">
-        <v>53.64705882352941</v>
+        <v>53.4375</v>
       </c>
       <c r="E78" t="n">
-        <v>54.35294117647059</v>
+        <v>54.140625</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.948637781672212</v>
+        <v>0.944932165337555</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9609577528627602</v>
+        <v>0.9572040116406401</v>
       </c>
       <c r="D79" t="n">
-        <v>54.35294117647059</v>
+        <v>54.140625</v>
       </c>
       <c r="E79" t="n">
-        <v>55.05882352941176</v>
+        <v>54.84375</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9609577528627602</v>
+        <v>0.9572040116406401</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9732777240533085</v>
+        <v>0.9694758579437253</v>
       </c>
       <c r="D80" t="n">
-        <v>55.05882352941176</v>
+        <v>54.84375</v>
       </c>
       <c r="E80" t="n">
-        <v>55.76470588235294</v>
+        <v>55.546875</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9732777240533085</v>
+        <v>0.9694758579437253</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9855976952438567</v>
+        <v>0.9817477042468103</v>
       </c>
       <c r="D81" t="n">
-        <v>55.76470588235294</v>
+        <v>55.546875</v>
       </c>
       <c r="E81" t="n">
-        <v>56.47058823529412</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9855976952438567</v>
+        <v>0.9817477042468103</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9979176664344048</v>
+        <v>0.9940195505498954</v>
       </c>
       <c r="D82" t="n">
-        <v>56.47058823529412</v>
+        <v>56.25</v>
       </c>
       <c r="E82" t="n">
-        <v>57.17647058823529</v>
+        <v>56.953125</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9979176664344048</v>
+        <v>0.9940195505498954</v>
       </c>
       <c r="C83" t="n">
-        <v>1.010237637624953</v>
+        <v>1.006291396852981</v>
       </c>
       <c r="D83" t="n">
-        <v>57.17647058823529</v>
+        <v>56.953125</v>
       </c>
       <c r="E83" t="n">
-        <v>57.88235294117647</v>
+        <v>57.65624999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.010237637624953</v>
+        <v>1.006291396852981</v>
       </c>
       <c r="C84" t="n">
-        <v>1.022557608815501</v>
+        <v>1.018563243156066</v>
       </c>
       <c r="D84" t="n">
-        <v>57.88235294117647</v>
+        <v>57.65624999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>58.58823529411764</v>
+        <v>58.35937500000001</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.022557608815501</v>
+        <v>1.018563243156066</v>
       </c>
       <c r="C85" t="n">
-        <v>1.034877580006049</v>
+        <v>1.030835089459151</v>
       </c>
       <c r="D85" t="n">
-        <v>58.58823529411764</v>
+        <v>58.35937500000001</v>
       </c>
       <c r="E85" t="n">
-        <v>59.29411764705882</v>
+        <v>59.0625</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.034877580006049</v>
+        <v>1.030835089459151</v>
       </c>
       <c r="C86" t="n">
-        <v>1.047197551196598</v>
+        <v>1.043106935762236</v>
       </c>
       <c r="D86" t="n">
-        <v>59.29411764705882</v>
+        <v>59.0625</v>
       </c>
       <c r="E86" t="n">
-        <v>59.99999999999999</v>
+        <v>59.765625</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.047197551196598</v>
+        <v>1.043106935762236</v>
       </c>
       <c r="C87" t="n">
-        <v>1.059517522387146</v>
+        <v>1.055378782065321</v>
       </c>
       <c r="D87" t="n">
-        <v>59.99999999999999</v>
+        <v>59.765625</v>
       </c>
       <c r="E87" t="n">
-        <v>60.70588235294117</v>
+        <v>60.46875</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.059517522387146</v>
+        <v>1.055378782065321</v>
       </c>
       <c r="C88" t="n">
-        <v>1.071837493577694</v>
+        <v>1.067650628368406</v>
       </c>
       <c r="D88" t="n">
-        <v>60.70588235294117</v>
+        <v>60.46875</v>
       </c>
       <c r="E88" t="n">
-        <v>61.41176470588236</v>
+        <v>61.17187499999999</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.071837493577694</v>
+        <v>1.067650628368406</v>
       </c>
       <c r="C89" t="n">
-        <v>1.084157464768242</v>
+        <v>1.079922474671491</v>
       </c>
       <c r="D89" t="n">
-        <v>61.41176470588236</v>
+        <v>61.17187499999999</v>
       </c>
       <c r="E89" t="n">
-        <v>62.11764705882353</v>
+        <v>61.87499999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.084157464768242</v>
+        <v>1.079922474671491</v>
       </c>
       <c r="C90" t="n">
-        <v>1.096477435958791</v>
+        <v>1.092194320974577</v>
       </c>
       <c r="D90" t="n">
-        <v>62.11764705882353</v>
+        <v>61.87499999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>62.8235294117647</v>
+        <v>62.57812500000001</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.096477435958791</v>
+        <v>1.092194320974577</v>
       </c>
       <c r="C91" t="n">
-        <v>1.108797407149339</v>
+        <v>1.104466167277662</v>
       </c>
       <c r="D91" t="n">
-        <v>62.8235294117647</v>
+        <v>62.57812500000001</v>
       </c>
       <c r="E91" t="n">
-        <v>63.52941176470588</v>
+        <v>63.28125</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.108797407149339</v>
+        <v>1.104466167277662</v>
       </c>
       <c r="C92" t="n">
-        <v>1.121117378339887</v>
+        <v>1.116738013580747</v>
       </c>
       <c r="D92" t="n">
-        <v>63.52941176470588</v>
+        <v>63.28125</v>
       </c>
       <c r="E92" t="n">
-        <v>64.23529411764706</v>
+        <v>63.984375</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.121117378339887</v>
+        <v>1.116738013580747</v>
       </c>
       <c r="C93" t="n">
-        <v>1.133437349530435</v>
+        <v>1.129009859883832</v>
       </c>
       <c r="D93" t="n">
-        <v>64.23529411764706</v>
+        <v>63.984375</v>
       </c>
       <c r="E93" t="n">
-        <v>64.94117647058823</v>
+        <v>64.6875</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.133437349530435</v>
+        <v>1.129009859883832</v>
       </c>
       <c r="C94" t="n">
-        <v>1.145757320720983</v>
+        <v>1.141281706186917</v>
       </c>
       <c r="D94" t="n">
-        <v>64.94117647058823</v>
+        <v>64.6875</v>
       </c>
       <c r="E94" t="n">
-        <v>65.64705882352942</v>
+        <v>65.390625</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.145757320720983</v>
+        <v>1.141281706186917</v>
       </c>
       <c r="C95" t="n">
-        <v>1.158077291911532</v>
+        <v>1.153553552490002</v>
       </c>
       <c r="D95" t="n">
-        <v>65.64705882352942</v>
+        <v>65.390625</v>
       </c>
       <c r="E95" t="n">
-        <v>66.35294117647059</v>
+        <v>66.09375</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.158077291911532</v>
+        <v>1.153553552490002</v>
       </c>
       <c r="C96" t="n">
-        <v>1.17039726310208</v>
+        <v>1.165825398793087</v>
       </c>
       <c r="D96" t="n">
-        <v>66.35294117647059</v>
+        <v>66.09375</v>
       </c>
       <c r="E96" t="n">
-        <v>67.05882352941177</v>
+        <v>66.796875</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.17039726310208</v>
+        <v>1.165825398793087</v>
       </c>
       <c r="C97" t="n">
-        <v>1.182717234292628</v>
+        <v>1.178097245096172</v>
       </c>
       <c r="D97" t="n">
-        <v>67.05882352941177</v>
+        <v>66.796875</v>
       </c>
       <c r="E97" t="n">
-        <v>67.76470588235294</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.182717234292628</v>
+        <v>1.178097245096172</v>
       </c>
       <c r="C98" t="n">
-        <v>1.195037205483176</v>
+        <v>1.190369091399258</v>
       </c>
       <c r="D98" t="n">
-        <v>67.76470588235294</v>
+        <v>67.5</v>
       </c>
       <c r="E98" t="n">
-        <v>68.47058823529412</v>
+        <v>68.203125</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.195037205483176</v>
+        <v>1.190369091399258</v>
       </c>
       <c r="C99" t="n">
-        <v>1.207357176673724</v>
+        <v>1.202640937702343</v>
       </c>
       <c r="D99" t="n">
-        <v>68.47058823529412</v>
+        <v>68.203125</v>
       </c>
       <c r="E99" t="n">
-        <v>69.17647058823529</v>
+        <v>68.90625</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.207357176673724</v>
+        <v>1.202640937702343</v>
       </c>
       <c r="C100" t="n">
-        <v>1.219677147864273</v>
+        <v>1.214912784005428</v>
       </c>
       <c r="D100" t="n">
-        <v>69.17647058823529</v>
+        <v>68.90625</v>
       </c>
       <c r="E100" t="n">
-        <v>69.88235294117646</v>
+        <v>69.609375</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.219677147864273</v>
+        <v>1.214912784005428</v>
       </c>
       <c r="C101" t="n">
-        <v>1.231997119054821</v>
+        <v>1.227184630308513</v>
       </c>
       <c r="D101" t="n">
-        <v>69.88235294117646</v>
+        <v>69.609375</v>
       </c>
       <c r="E101" t="n">
-        <v>70.58823529411765</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.231997119054821</v>
+        <v>1.227184630308513</v>
       </c>
       <c r="C102" t="n">
-        <v>1.244317090245369</v>
+        <v>1.239456476611598</v>
       </c>
       <c r="D102" t="n">
-        <v>70.58823529411765</v>
+        <v>70.3125</v>
       </c>
       <c r="E102" t="n">
-        <v>71.29411764705883</v>
+        <v>71.015625</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.244317090245369</v>
+        <v>1.239456476611598</v>
       </c>
       <c r="C103" t="n">
-        <v>1.256637061435917</v>
+        <v>1.251728322914683</v>
       </c>
       <c r="D103" t="n">
-        <v>71.29411764705883</v>
+        <v>71.015625</v>
       </c>
       <c r="E103" t="n">
-        <v>72</v>
+        <v>71.71875</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.256637061435917</v>
+        <v>1.251728322914683</v>
       </c>
       <c r="C104" t="n">
-        <v>1.268957032626465</v>
+        <v>1.264000169217768</v>
       </c>
       <c r="D104" t="n">
-        <v>72</v>
+        <v>71.71875</v>
       </c>
       <c r="E104" t="n">
-        <v>72.70588235294117</v>
+        <v>72.421875</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.268957032626465</v>
+        <v>1.264000169217768</v>
       </c>
       <c r="C105" t="n">
-        <v>1.281277003817014</v>
+        <v>1.276272015520854</v>
       </c>
       <c r="D105" t="n">
-        <v>72.70588235294117</v>
+        <v>72.421875</v>
       </c>
       <c r="E105" t="n">
-        <v>73.41176470588235</v>
+        <v>73.125</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.281277003817014</v>
+        <v>1.276272015520854</v>
       </c>
       <c r="C106" t="n">
-        <v>1.293596975007562</v>
+        <v>1.288543861823939</v>
       </c>
       <c r="D106" t="n">
-        <v>73.41176470588235</v>
+        <v>73.125</v>
       </c>
       <c r="E106" t="n">
-        <v>74.11764705882352</v>
+        <v>73.828125</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.293596975007562</v>
+        <v>1.288543861823939</v>
       </c>
       <c r="C107" t="n">
-        <v>1.30591694619811</v>
+        <v>1.300815708127024</v>
       </c>
       <c r="D107" t="n">
-        <v>74.11764705882352</v>
+        <v>73.828125</v>
       </c>
       <c r="E107" t="n">
-        <v>74.82352941176471</v>
+        <v>74.53125</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.30591694619811</v>
+        <v>1.300815708127024</v>
       </c>
       <c r="C108" t="n">
-        <v>1.318236917388658</v>
+        <v>1.313087554430109</v>
       </c>
       <c r="D108" t="n">
-        <v>74.82352941176471</v>
+        <v>74.53125</v>
       </c>
       <c r="E108" t="n">
-        <v>75.52941176470588</v>
+        <v>75.234375</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.318236917388658</v>
+        <v>1.313087554430109</v>
       </c>
       <c r="C109" t="n">
-        <v>1.330556888579207</v>
+        <v>1.325359400733194</v>
       </c>
       <c r="D109" t="n">
-        <v>75.52941176470588</v>
+        <v>75.234375</v>
       </c>
       <c r="E109" t="n">
-        <v>76.23529411764706</v>
+        <v>75.9375</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.330556888579207</v>
+        <v>1.325359400733194</v>
       </c>
       <c r="C110" t="n">
-        <v>1.342876859769755</v>
+        <v>1.337631247036279</v>
       </c>
       <c r="D110" t="n">
-        <v>76.23529411764706</v>
+        <v>75.9375</v>
       </c>
       <c r="E110" t="n">
-        <v>76.94117647058823</v>
+        <v>76.640625</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.342876859769755</v>
+        <v>1.337631247036279</v>
       </c>
       <c r="C111" t="n">
-        <v>1.355196830960303</v>
+        <v>1.349903093339364</v>
       </c>
       <c r="D111" t="n">
-        <v>76.94117647058823</v>
+        <v>76.640625</v>
       </c>
       <c r="E111" t="n">
-        <v>77.64705882352941</v>
+        <v>77.34375</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.355196830960303</v>
+        <v>1.349903093339364</v>
       </c>
       <c r="C112" t="n">
-        <v>1.367516802150851</v>
+        <v>1.362174939642449</v>
       </c>
       <c r="D112" t="n">
-        <v>77.64705882352941</v>
+        <v>77.34375</v>
       </c>
       <c r="E112" t="n">
-        <v>78.35294117647058</v>
+        <v>78.046875</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.367516802150851</v>
+        <v>1.362174939642449</v>
       </c>
       <c r="C113" t="n">
-        <v>1.379836773341399</v>
+        <v>1.374446785945534</v>
       </c>
       <c r="D113" t="n">
-        <v>78.35294117647058</v>
+        <v>78.046875</v>
       </c>
       <c r="E113" t="n">
-        <v>79.05882352941177</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.379836773341399</v>
+        <v>1.374446785945534</v>
       </c>
       <c r="C114" t="n">
-        <v>1.392156744531948</v>
+        <v>1.38671863224862</v>
       </c>
       <c r="D114" t="n">
-        <v>79.05882352941177</v>
+        <v>78.75</v>
       </c>
       <c r="E114" t="n">
-        <v>79.76470588235294</v>
+        <v>79.453125</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.392156744531948</v>
+        <v>1.38671863224862</v>
       </c>
       <c r="C115" t="n">
-        <v>1.404476715722496</v>
+        <v>1.398990478551705</v>
       </c>
       <c r="D115" t="n">
-        <v>79.76470588235294</v>
+        <v>79.453125</v>
       </c>
       <c r="E115" t="n">
-        <v>80.47058823529412</v>
+        <v>80.15625</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.404476715722496</v>
+        <v>1.398990478551705</v>
       </c>
       <c r="C116" t="n">
-        <v>1.416796686913044</v>
+        <v>1.41126232485479</v>
       </c>
       <c r="D116" t="n">
-        <v>80.47058823529412</v>
+        <v>80.15625</v>
       </c>
       <c r="E116" t="n">
-        <v>81.17647058823529</v>
+        <v>80.859375</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.416796686913044</v>
+        <v>1.41126232485479</v>
       </c>
       <c r="C117" t="n">
-        <v>1.429116658103592</v>
+        <v>1.423534171157875</v>
       </c>
       <c r="D117" t="n">
-        <v>81.17647058823529</v>
+        <v>80.859375</v>
       </c>
       <c r="E117" t="n">
-        <v>81.88235294117646</v>
+        <v>81.5625</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.429116658103592</v>
+        <v>1.423534171157875</v>
       </c>
       <c r="C118" t="n">
-        <v>1.44143662929414</v>
+        <v>1.43580601746096</v>
       </c>
       <c r="D118" t="n">
-        <v>81.88235294117646</v>
+        <v>81.5625</v>
       </c>
       <c r="E118" t="n">
-        <v>82.58823529411764</v>
+        <v>82.265625</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.44143662929414</v>
+        <v>1.43580601746096</v>
       </c>
       <c r="C119" t="n">
-        <v>1.453756600484688</v>
+        <v>1.448077863764045</v>
       </c>
       <c r="D119" t="n">
-        <v>82.58823529411764</v>
+        <v>82.265625</v>
       </c>
       <c r="E119" t="n">
-        <v>83.29411764705881</v>
+        <v>82.96875</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.453756600484688</v>
+        <v>1.448077863764045</v>
       </c>
       <c r="C120" t="n">
-        <v>1.466076571675237</v>
+        <v>1.46034971006713</v>
       </c>
       <c r="D120" t="n">
-        <v>83.29411764705881</v>
+        <v>82.96875</v>
       </c>
       <c r="E120" t="n">
-        <v>84</v>
+        <v>83.671875</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.466076571675237</v>
+        <v>1.46034971006713</v>
       </c>
       <c r="C121" t="n">
-        <v>1.478396542865785</v>
+        <v>1.472621556370215</v>
       </c>
       <c r="D121" t="n">
-        <v>84</v>
+        <v>83.671875</v>
       </c>
       <c r="E121" t="n">
-        <v>84.70588235294117</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.478396542865785</v>
+        <v>1.472621556370215</v>
       </c>
       <c r="C122" t="n">
-        <v>1.490716514056333</v>
+        <v>1.484893402673301</v>
       </c>
       <c r="D122" t="n">
-        <v>84.70588235294117</v>
+        <v>84.375</v>
       </c>
       <c r="E122" t="n">
-        <v>85.41176470588235</v>
+        <v>85.078125</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.490716514056333</v>
+        <v>1.484893402673301</v>
       </c>
       <c r="C123" t="n">
-        <v>1.503036485246881</v>
+        <v>1.497165248976386</v>
       </c>
       <c r="D123" t="n">
-        <v>85.41176470588235</v>
+        <v>85.078125</v>
       </c>
       <c r="E123" t="n">
-        <v>86.11764705882352</v>
+        <v>85.78125</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.503036485246881</v>
+        <v>1.497165248976386</v>
       </c>
       <c r="C124" t="n">
-        <v>1.51535645643743</v>
+        <v>1.509437095279471</v>
       </c>
       <c r="D124" t="n">
-        <v>86.11764705882352</v>
+        <v>85.78125</v>
       </c>
       <c r="E124" t="n">
-        <v>86.8235294117647</v>
+        <v>86.484375</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.51535645643743</v>
+        <v>1.509437095279471</v>
       </c>
       <c r="C125" t="n">
-        <v>1.527676427627978</v>
+        <v>1.521708941582556</v>
       </c>
       <c r="D125" t="n">
-        <v>86.8235294117647</v>
+        <v>86.484375</v>
       </c>
       <c r="E125" t="n">
-        <v>87.52941176470587</v>
+        <v>87.1875</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.527676427627978</v>
+        <v>1.521708941582556</v>
       </c>
       <c r="C126" t="n">
-        <v>1.539996398818526</v>
+        <v>1.533980787885641</v>
       </c>
       <c r="D126" t="n">
-        <v>87.52941176470587</v>
+        <v>87.1875</v>
       </c>
       <c r="E126" t="n">
-        <v>88.23529411764706</v>
+        <v>87.890625</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.539996398818526</v>
+        <v>1.533980787885641</v>
       </c>
       <c r="C127" t="n">
-        <v>1.552316370009074</v>
+        <v>1.546252634188726</v>
       </c>
       <c r="D127" t="n">
-        <v>88.23529411764706</v>
+        <v>87.890625</v>
       </c>
       <c r="E127" t="n">
-        <v>88.94117647058823</v>
+        <v>88.59375</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.552316370009074</v>
+        <v>1.546252634188726</v>
       </c>
       <c r="C128" t="n">
-        <v>1.564636341199622</v>
+        <v>1.558524480491811</v>
       </c>
       <c r="D128" t="n">
-        <v>88.94117647058823</v>
+        <v>88.59375</v>
       </c>
       <c r="E128" t="n">
-        <v>89.64705882352941</v>
+        <v>89.296875</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.564636341199622</v>
+        <v>1.558524480491811</v>
       </c>
       <c r="C129" t="n">
-        <v>1.576956312390171</v>
+        <v>1.570796326794897</v>
       </c>
       <c r="D129" t="n">
-        <v>89.64705882352941</v>
+        <v>89.296875</v>
       </c>
       <c r="E129" t="n">
-        <v>90.35294117647058</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.576956312390171</v>
+        <v>1.570796326794897</v>
       </c>
       <c r="C130" t="n">
-        <v>1.589276283580719</v>
+        <v>1.583068173097982</v>
       </c>
       <c r="D130" t="n">
-        <v>90.35294117647058</v>
+        <v>90</v>
       </c>
       <c r="E130" t="n">
-        <v>91.05882352941177</v>
+        <v>90.703125</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.589276283580719</v>
+        <v>1.583068173097982</v>
       </c>
       <c r="C131" t="n">
-        <v>1.601596254771267</v>
+        <v>1.595340019401067</v>
       </c>
       <c r="D131" t="n">
-        <v>91.05882352941177</v>
+        <v>90.703125</v>
       </c>
       <c r="E131" t="n">
-        <v>91.76470588235294</v>
+        <v>91.40625</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.601596254771267</v>
+        <v>1.595340019401067</v>
       </c>
       <c r="C132" t="n">
-        <v>1.613916225961815</v>
+        <v>1.607611865704152</v>
       </c>
       <c r="D132" t="n">
-        <v>91.76470588235294</v>
+        <v>91.40625</v>
       </c>
       <c r="E132" t="n">
-        <v>92.47058823529412</v>
+        <v>92.109375</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.613916225961815</v>
+        <v>1.607611865704152</v>
       </c>
       <c r="C133" t="n">
-        <v>1.626236197152364</v>
+        <v>1.619883712007237</v>
       </c>
       <c r="D133" t="n">
-        <v>92.47058823529412</v>
+        <v>92.109375</v>
       </c>
       <c r="E133" t="n">
-        <v>93.1764705882353</v>
+        <v>92.8125</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.626236197152364</v>
+        <v>1.619883712007237</v>
       </c>
       <c r="C134" t="n">
-        <v>1.638556168342912</v>
+        <v>1.632155558310322</v>
       </c>
       <c r="D134" t="n">
-        <v>93.1764705882353</v>
+        <v>92.8125</v>
       </c>
       <c r="E134" t="n">
-        <v>93.88235294117648</v>
+        <v>93.515625</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.638556168342912</v>
+        <v>1.632155558310322</v>
       </c>
       <c r="C135" t="n">
-        <v>1.65087613953346</v>
+        <v>1.644427404613407</v>
       </c>
       <c r="D135" t="n">
-        <v>93.88235294117648</v>
+        <v>93.515625</v>
       </c>
       <c r="E135" t="n">
-        <v>94.58823529411765</v>
+        <v>94.21875</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.65087613953346</v>
+        <v>1.644427404613407</v>
       </c>
       <c r="C136" t="n">
-        <v>1.663196110724008</v>
+        <v>1.656699250916492</v>
       </c>
       <c r="D136" t="n">
-        <v>94.58823529411765</v>
+        <v>94.21875</v>
       </c>
       <c r="E136" t="n">
-        <v>95.29411764705883</v>
+        <v>94.921875</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.663196110724008</v>
+        <v>1.656699250916492</v>
       </c>
       <c r="C137" t="n">
-        <v>1.675516081914556</v>
+        <v>1.668971097219578</v>
       </c>
       <c r="D137" t="n">
-        <v>95.29411764705883</v>
+        <v>94.921875</v>
       </c>
       <c r="E137" t="n">
-        <v>96</v>
+        <v>95.625</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.675516081914556</v>
+        <v>1.668971097219578</v>
       </c>
       <c r="C138" t="n">
-        <v>1.687836053105104</v>
+        <v>1.681242943522663</v>
       </c>
       <c r="D138" t="n">
-        <v>96</v>
+        <v>95.625</v>
       </c>
       <c r="E138" t="n">
-        <v>96.70588235294117</v>
+        <v>96.328125</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.687836053105104</v>
+        <v>1.681242943522663</v>
       </c>
       <c r="C139" t="n">
-        <v>1.700156024295653</v>
+        <v>1.693514789825748</v>
       </c>
       <c r="D139" t="n">
-        <v>96.70588235294117</v>
+        <v>96.328125</v>
       </c>
       <c r="E139" t="n">
-        <v>97.41176470588236</v>
+        <v>97.03125</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.700156024295653</v>
+        <v>1.693514789825748</v>
       </c>
       <c r="C140" t="n">
-        <v>1.712475995486201</v>
+        <v>1.705786636128833</v>
       </c>
       <c r="D140" t="n">
-        <v>97.41176470588236</v>
+        <v>97.03125</v>
       </c>
       <c r="E140" t="n">
-        <v>98.11764705882354</v>
+        <v>97.734375</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.712475995486201</v>
+        <v>1.705786636128833</v>
       </c>
       <c r="C141" t="n">
-        <v>1.724795966676749</v>
+        <v>1.718058482431918</v>
       </c>
       <c r="D141" t="n">
-        <v>98.11764705882354</v>
+        <v>97.734375</v>
       </c>
       <c r="E141" t="n">
-        <v>98.82352941176471</v>
+        <v>98.4375</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.724795966676749</v>
+        <v>1.718058482431918</v>
       </c>
       <c r="C142" t="n">
-        <v>1.737115937867297</v>
+        <v>1.730330328735003</v>
       </c>
       <c r="D142" t="n">
-        <v>98.82352941176471</v>
+        <v>98.4375</v>
       </c>
       <c r="E142" t="n">
-        <v>99.52941176470588</v>
+        <v>99.140625</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.737115937867297</v>
+        <v>1.730330328735003</v>
       </c>
       <c r="C143" t="n">
-        <v>1.749435909057846</v>
+        <v>1.742602175038088</v>
       </c>
       <c r="D143" t="n">
-        <v>99.52941176470588</v>
+        <v>99.140625</v>
       </c>
       <c r="E143" t="n">
-        <v>100.2352941176471</v>
+        <v>99.84375</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.749435909057846</v>
+        <v>1.742602175038088</v>
       </c>
       <c r="C144" t="n">
-        <v>1.761755880248394</v>
+        <v>1.754874021341174</v>
       </c>
       <c r="D144" t="n">
-        <v>100.2352941176471</v>
+        <v>99.84375</v>
       </c>
       <c r="E144" t="n">
-        <v>100.9411764705882</v>
+        <v>100.546875</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.761755880248394</v>
+        <v>1.754874021341174</v>
       </c>
       <c r="C145" t="n">
-        <v>1.774075851438942</v>
+        <v>1.767145867644259</v>
       </c>
       <c r="D145" t="n">
-        <v>100.9411764705882</v>
+        <v>100.546875</v>
       </c>
       <c r="E145" t="n">
-        <v>101.6470588235294</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.774075851438942</v>
+        <v>1.767145867644259</v>
       </c>
       <c r="C146" t="n">
-        <v>1.78639582262949</v>
+        <v>1.779417713947344</v>
       </c>
       <c r="D146" t="n">
-        <v>101.6470588235294</v>
+        <v>101.25</v>
       </c>
       <c r="E146" t="n">
-        <v>102.3529411764706</v>
+        <v>101.953125</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.78639582262949</v>
+        <v>1.779417713947344</v>
       </c>
       <c r="C147" t="n">
-        <v>1.798715793820038</v>
+        <v>1.791689560250429</v>
       </c>
       <c r="D147" t="n">
-        <v>102.3529411764706</v>
+        <v>101.953125</v>
       </c>
       <c r="E147" t="n">
-        <v>103.0588235294118</v>
+        <v>102.65625</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.798715793820038</v>
+        <v>1.791689560250429</v>
       </c>
       <c r="C148" t="n">
-        <v>1.811035765010587</v>
+        <v>1.803961406553514</v>
       </c>
       <c r="D148" t="n">
-        <v>103.0588235294118</v>
+        <v>102.65625</v>
       </c>
       <c r="E148" t="n">
-        <v>103.7647058823529</v>
+        <v>103.359375</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.811035765010587</v>
+        <v>1.803961406553514</v>
       </c>
       <c r="C149" t="n">
-        <v>1.823355736201135</v>
+        <v>1.816233252856599</v>
       </c>
       <c r="D149" t="n">
-        <v>103.7647058823529</v>
+        <v>103.359375</v>
       </c>
       <c r="E149" t="n">
-        <v>104.4705882352941</v>
+        <v>104.0625</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.823355736201135</v>
+        <v>1.816233252856599</v>
       </c>
       <c r="C150" t="n">
-        <v>1.835675707391683</v>
+        <v>1.828505099159684</v>
       </c>
       <c r="D150" t="n">
-        <v>104.4705882352941</v>
+        <v>104.0625</v>
       </c>
       <c r="E150" t="n">
-        <v>105.1764705882353</v>
+        <v>104.765625</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.835675707391683</v>
+        <v>1.828505099159684</v>
       </c>
       <c r="C151" t="n">
-        <v>1.847995678582231</v>
+        <v>1.840776945462769</v>
       </c>
       <c r="D151" t="n">
-        <v>105.1764705882353</v>
+        <v>104.765625</v>
       </c>
       <c r="E151" t="n">
-        <v>105.8823529411765</v>
+        <v>105.46875</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.847995678582231</v>
+        <v>1.840776945462769</v>
       </c>
       <c r="C152" t="n">
-        <v>1.86031564977278</v>
+        <v>1.853048791765854</v>
       </c>
       <c r="D152" t="n">
-        <v>105.8823529411765</v>
+        <v>105.46875</v>
       </c>
       <c r="E152" t="n">
-        <v>106.5882352941177</v>
+        <v>106.171875</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.86031564977278</v>
+        <v>1.853048791765854</v>
       </c>
       <c r="C153" t="n">
-        <v>1.872635620963328</v>
+        <v>1.86532063806894</v>
       </c>
       <c r="D153" t="n">
-        <v>106.5882352941177</v>
+        <v>106.171875</v>
       </c>
       <c r="E153" t="n">
-        <v>107.2941176470588</v>
+        <v>106.875</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.872635620963328</v>
+        <v>1.86532063806894</v>
       </c>
       <c r="C154" t="n">
-        <v>1.884955592153876</v>
+        <v>1.877592484372025</v>
       </c>
       <c r="D154" t="n">
-        <v>107.2941176470588</v>
+        <v>106.875</v>
       </c>
       <c r="E154" t="n">
-        <v>108</v>
+        <v>107.578125</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.884955592153876</v>
+        <v>1.877592484372025</v>
       </c>
       <c r="C155" t="n">
-        <v>1.897275563344424</v>
+        <v>1.88986433067511</v>
       </c>
       <c r="D155" t="n">
-        <v>108</v>
+        <v>107.578125</v>
       </c>
       <c r="E155" t="n">
-        <v>108.7058823529412</v>
+        <v>108.28125</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.897275563344424</v>
+        <v>1.88986433067511</v>
       </c>
       <c r="C156" t="n">
-        <v>1.909595534534972</v>
+        <v>1.902136176978195</v>
       </c>
       <c r="D156" t="n">
-        <v>108.7058823529412</v>
+        <v>108.28125</v>
       </c>
       <c r="E156" t="n">
-        <v>109.4117647058823</v>
+        <v>108.984375</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.909595534534972</v>
+        <v>1.902136176978195</v>
       </c>
       <c r="C157" t="n">
-        <v>1.92191550572552</v>
+        <v>1.91440802328128</v>
       </c>
       <c r="D157" t="n">
-        <v>109.4117647058823</v>
+        <v>108.984375</v>
       </c>
       <c r="E157" t="n">
-        <v>110.1176470588235</v>
+        <v>109.6875</v>
       </c>
     </row>
     <row r="158">
@@ -3117,16 +3117,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.92191550572552</v>
+        <v>1.91440802328128</v>
       </c>
       <c r="C158" t="n">
-        <v>1.934235476916069</v>
+        <v>1.926679869584365</v>
       </c>
       <c r="D158" t="n">
-        <v>110.1176470588235</v>
+        <v>109.6875</v>
       </c>
       <c r="E158" t="n">
-        <v>110.8235294117647</v>
+        <v>110.390625</v>
       </c>
     </row>
     <row r="159">
@@ -3134,16 +3134,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.934235476916069</v>
+        <v>1.926679869584365</v>
       </c>
       <c r="C159" t="n">
-        <v>1.946555448106617</v>
+        <v>1.938951715887451</v>
       </c>
       <c r="D159" t="n">
-        <v>110.8235294117647</v>
+        <v>110.390625</v>
       </c>
       <c r="E159" t="n">
-        <v>111.5294117647059</v>
+        <v>111.09375</v>
       </c>
     </row>
     <row r="160">
@@ -3151,16 +3151,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.946555448106617</v>
+        <v>1.938951715887451</v>
       </c>
       <c r="C160" t="n">
-        <v>1.958875419297165</v>
+        <v>1.951223562190536</v>
       </c>
       <c r="D160" t="n">
-        <v>111.5294117647059</v>
+        <v>111.09375</v>
       </c>
       <c r="E160" t="n">
-        <v>112.2352941176471</v>
+        <v>111.796875</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.958875419297165</v>
+        <v>1.951223562190536</v>
       </c>
       <c r="C161" t="n">
-        <v>1.971195390487713</v>
+        <v>1.963495408493621</v>
       </c>
       <c r="D161" t="n">
-        <v>112.2352941176471</v>
+        <v>111.796875</v>
       </c>
       <c r="E161" t="n">
-        <v>112.9411764705882</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.971195390487713</v>
+        <v>1.963495408493621</v>
       </c>
       <c r="C162" t="n">
-        <v>1.983515361678261</v>
+        <v>1.975767254796706</v>
       </c>
       <c r="D162" t="n">
-        <v>112.9411764705882</v>
+        <v>112.5</v>
       </c>
       <c r="E162" t="n">
-        <v>113.6470588235294</v>
+        <v>113.203125</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.983515361678261</v>
+        <v>1.975767254796706</v>
       </c>
       <c r="C163" t="n">
-        <v>1.99583533286881</v>
+        <v>1.988039101099791</v>
       </c>
       <c r="D163" t="n">
-        <v>113.6470588235294</v>
+        <v>113.203125</v>
       </c>
       <c r="E163" t="n">
-        <v>114.3529411764706</v>
+        <v>113.90625</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.99583533286881</v>
+        <v>1.988039101099791</v>
       </c>
       <c r="C164" t="n">
-        <v>2.008155304059358</v>
+        <v>2.000310947402876</v>
       </c>
       <c r="D164" t="n">
-        <v>114.3529411764706</v>
+        <v>113.90625</v>
       </c>
       <c r="E164" t="n">
-        <v>115.0588235294118</v>
+        <v>114.609375</v>
       </c>
     </row>
     <row r="165">
@@ -3236,16 +3236,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.008155304059358</v>
+        <v>2.000310947402876</v>
       </c>
       <c r="C165" t="n">
-        <v>2.020475275249906</v>
+        <v>2.012582793705961</v>
       </c>
       <c r="D165" t="n">
-        <v>115.0588235294118</v>
+        <v>114.609375</v>
       </c>
       <c r="E165" t="n">
-        <v>115.7647058823529</v>
+        <v>115.3125</v>
       </c>
     </row>
     <row r="166">
@@ -3253,16 +3253,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2.020475275249906</v>
+        <v>2.012582793705961</v>
       </c>
       <c r="C166" t="n">
-        <v>2.032795246440454</v>
+        <v>2.024854640009046</v>
       </c>
       <c r="D166" t="n">
-        <v>115.7647058823529</v>
+        <v>115.3125</v>
       </c>
       <c r="E166" t="n">
-        <v>116.4705882352941</v>
+        <v>116.015625</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.032795246440454</v>
+        <v>2.024854640009046</v>
       </c>
       <c r="C167" t="n">
-        <v>2.045115217631003</v>
+        <v>2.037126486312132</v>
       </c>
       <c r="D167" t="n">
-        <v>116.4705882352941</v>
+        <v>116.015625</v>
       </c>
       <c r="E167" t="n">
-        <v>117.1764705882353</v>
+        <v>116.71875</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.045115217631003</v>
+        <v>2.037126486312132</v>
       </c>
       <c r="C168" t="n">
-        <v>2.057435188821551</v>
+        <v>2.049398332615217</v>
       </c>
       <c r="D168" t="n">
-        <v>117.1764705882353</v>
+        <v>116.71875</v>
       </c>
       <c r="E168" t="n">
-        <v>117.8823529411765</v>
+        <v>117.421875</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.057435188821551</v>
+        <v>2.049398332615217</v>
       </c>
       <c r="C169" t="n">
-        <v>2.069755160012099</v>
+        <v>2.061670178918302</v>
       </c>
       <c r="D169" t="n">
-        <v>117.8823529411765</v>
+        <v>117.421875</v>
       </c>
       <c r="E169" t="n">
-        <v>118.5882352941176</v>
+        <v>118.125</v>
       </c>
     </row>
     <row r="170">
@@ -3321,16 +3321,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.069755160012099</v>
+        <v>2.061670178918302</v>
       </c>
       <c r="C170" t="n">
-        <v>2.082075131202647</v>
+        <v>2.073942025221387</v>
       </c>
       <c r="D170" t="n">
-        <v>118.5882352941176</v>
+        <v>118.125</v>
       </c>
       <c r="E170" t="n">
-        <v>119.2941176470588</v>
+        <v>118.828125</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.082075131202647</v>
+        <v>2.073942025221387</v>
       </c>
       <c r="C171" t="n">
-        <v>2.094395102393195</v>
+        <v>2.086213871524472</v>
       </c>
       <c r="D171" t="n">
-        <v>119.2941176470588</v>
+        <v>118.828125</v>
       </c>
       <c r="E171" t="n">
-        <v>120</v>
+        <v>119.53125</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2.094395102393195</v>
+        <v>2.086213871524472</v>
       </c>
       <c r="C172" t="n">
-        <v>2.106715073583743</v>
+        <v>2.098485717827557</v>
       </c>
       <c r="D172" t="n">
-        <v>120</v>
+        <v>119.53125</v>
       </c>
       <c r="E172" t="n">
-        <v>120.7058823529412</v>
+        <v>120.234375</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.106715073583743</v>
+        <v>2.098485717827557</v>
       </c>
       <c r="C173" t="n">
-        <v>2.119035044774292</v>
+        <v>2.110757564130642</v>
       </c>
       <c r="D173" t="n">
-        <v>120.7058823529412</v>
+        <v>120.234375</v>
       </c>
       <c r="E173" t="n">
-        <v>121.4117647058823</v>
+        <v>120.9375</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.119035044774292</v>
+        <v>2.110757564130642</v>
       </c>
       <c r="C174" t="n">
-        <v>2.13135501596484</v>
+        <v>2.123029410433727</v>
       </c>
       <c r="D174" t="n">
-        <v>121.4117647058823</v>
+        <v>120.9375</v>
       </c>
       <c r="E174" t="n">
-        <v>122.1176470588235</v>
+        <v>121.640625</v>
       </c>
     </row>
     <row r="175">
@@ -3406,16 +3406,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2.13135501596484</v>
+        <v>2.123029410433727</v>
       </c>
       <c r="C175" t="n">
-        <v>2.143674987155388</v>
+        <v>2.135301256736812</v>
       </c>
       <c r="D175" t="n">
-        <v>122.1176470588235</v>
+        <v>121.640625</v>
       </c>
       <c r="E175" t="n">
-        <v>122.8235294117647</v>
+        <v>122.34375</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.143674987155388</v>
+        <v>2.135301256736812</v>
       </c>
       <c r="C176" t="n">
-        <v>2.155994958345937</v>
+        <v>2.147573103039897</v>
       </c>
       <c r="D176" t="n">
-        <v>122.8235294117647</v>
+        <v>122.34375</v>
       </c>
       <c r="E176" t="n">
-        <v>123.5294117647059</v>
+        <v>123.046875</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.155994958345937</v>
+        <v>2.147573103039897</v>
       </c>
       <c r="C177" t="n">
-        <v>2.168314929536485</v>
+        <v>2.159844949342983</v>
       </c>
       <c r="D177" t="n">
-        <v>123.5294117647059</v>
+        <v>123.046875</v>
       </c>
       <c r="E177" t="n">
-        <v>124.2352941176471</v>
+        <v>123.75</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.168314929536485</v>
+        <v>2.159844949342983</v>
       </c>
       <c r="C178" t="n">
-        <v>2.180634900727033</v>
+        <v>2.172116795646068</v>
       </c>
       <c r="D178" t="n">
-        <v>124.2352941176471</v>
+        <v>123.75</v>
       </c>
       <c r="E178" t="n">
-        <v>124.9411764705882</v>
+        <v>124.453125</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.180634900727033</v>
+        <v>2.172116795646068</v>
       </c>
       <c r="C179" t="n">
-        <v>2.192954871917581</v>
+        <v>2.184388641949153</v>
       </c>
       <c r="D179" t="n">
-        <v>124.9411764705882</v>
+        <v>124.453125</v>
       </c>
       <c r="E179" t="n">
-        <v>125.6470588235294</v>
+        <v>125.15625</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.192954871917581</v>
+        <v>2.184388641949153</v>
       </c>
       <c r="C180" t="n">
-        <v>2.205274843108129</v>
+        <v>2.196660488252238</v>
       </c>
       <c r="D180" t="n">
-        <v>125.6470588235294</v>
+        <v>125.15625</v>
       </c>
       <c r="E180" t="n">
-        <v>126.3529411764706</v>
+        <v>125.859375</v>
       </c>
     </row>
     <row r="181">
@@ -3508,16 +3508,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.205274843108129</v>
+        <v>2.196660488252238</v>
       </c>
       <c r="C181" t="n">
-        <v>2.217594814298677</v>
+        <v>2.208932334555323</v>
       </c>
       <c r="D181" t="n">
-        <v>126.3529411764706</v>
+        <v>125.859375</v>
       </c>
       <c r="E181" t="n">
-        <v>127.0588235294118</v>
+        <v>126.5625</v>
       </c>
     </row>
     <row r="182">
@@ -3525,16 +3525,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.217594814298677</v>
+        <v>2.208932334555323</v>
       </c>
       <c r="C182" t="n">
-        <v>2.229914785489226</v>
+        <v>2.221204180858408</v>
       </c>
       <c r="D182" t="n">
-        <v>127.0588235294118</v>
+        <v>126.5625</v>
       </c>
       <c r="E182" t="n">
-        <v>127.7647058823529</v>
+        <v>127.265625</v>
       </c>
     </row>
     <row r="183">
@@ -3542,16 +3542,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.229914785489226</v>
+        <v>2.221204180858408</v>
       </c>
       <c r="C183" t="n">
-        <v>2.242234756679774</v>
+        <v>2.233476027161494</v>
       </c>
       <c r="D183" t="n">
-        <v>127.7647058823529</v>
+        <v>127.265625</v>
       </c>
       <c r="E183" t="n">
-        <v>128.4705882352941</v>
+        <v>127.96875</v>
       </c>
     </row>
     <row r="184">
@@ -3559,16 +3559,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.242234756679774</v>
+        <v>2.233476027161494</v>
       </c>
       <c r="C184" t="n">
-        <v>2.254554727870322</v>
+        <v>2.245747873464579</v>
       </c>
       <c r="D184" t="n">
-        <v>128.4705882352941</v>
+        <v>127.96875</v>
       </c>
       <c r="E184" t="n">
-        <v>129.1764705882353</v>
+        <v>128.671875</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.254554727870322</v>
+        <v>2.245747873464579</v>
       </c>
       <c r="C185" t="n">
-        <v>2.26687469906087</v>
+        <v>2.258019719767664</v>
       </c>
       <c r="D185" t="n">
-        <v>129.1764705882353</v>
+        <v>128.671875</v>
       </c>
       <c r="E185" t="n">
-        <v>129.8823529411765</v>
+        <v>129.375</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2.26687469906087</v>
+        <v>2.258019719767664</v>
       </c>
       <c r="C186" t="n">
-        <v>2.279194670251418</v>
+        <v>2.270291566070749</v>
       </c>
       <c r="D186" t="n">
-        <v>129.8823529411765</v>
+        <v>129.375</v>
       </c>
       <c r="E186" t="n">
-        <v>130.5882352941176</v>
+        <v>130.078125</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2.279194670251418</v>
+        <v>2.270291566070749</v>
       </c>
       <c r="C187" t="n">
-        <v>2.291514641441967</v>
+        <v>2.282563412373834</v>
       </c>
       <c r="D187" t="n">
-        <v>130.5882352941176</v>
+        <v>130.078125</v>
       </c>
       <c r="E187" t="n">
-        <v>131.2941176470588</v>
+        <v>130.78125</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.291514641441967</v>
+        <v>2.282563412373834</v>
       </c>
       <c r="C188" t="n">
-        <v>2.303834612632515</v>
+        <v>2.294835258676919</v>
       </c>
       <c r="D188" t="n">
-        <v>131.2941176470588</v>
+        <v>130.78125</v>
       </c>
       <c r="E188" t="n">
-        <v>132</v>
+        <v>131.484375</v>
       </c>
     </row>
     <row r="189">
@@ -3644,16 +3644,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2.303834612632515</v>
+        <v>2.294835258676919</v>
       </c>
       <c r="C189" t="n">
-        <v>2.316154583823063</v>
+        <v>2.307107104980004</v>
       </c>
       <c r="D189" t="n">
-        <v>132</v>
+        <v>131.484375</v>
       </c>
       <c r="E189" t="n">
-        <v>132.7058823529412</v>
+        <v>132.1875</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2.316154583823063</v>
+        <v>2.307107104980004</v>
       </c>
       <c r="C190" t="n">
-        <v>2.328474555013611</v>
+        <v>2.31937895128309</v>
       </c>
       <c r="D190" t="n">
-        <v>132.7058823529412</v>
+        <v>132.1875</v>
       </c>
       <c r="E190" t="n">
-        <v>133.4117647058823</v>
+        <v>132.890625</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2.328474555013611</v>
+        <v>2.31937895128309</v>
       </c>
       <c r="C191" t="n">
-        <v>2.34079452620416</v>
+        <v>2.331650797586175</v>
       </c>
       <c r="D191" t="n">
-        <v>133.4117647058823</v>
+        <v>132.890625</v>
       </c>
       <c r="E191" t="n">
-        <v>134.1176470588235</v>
+        <v>133.59375</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2.34079452620416</v>
+        <v>2.331650797586175</v>
       </c>
       <c r="C192" t="n">
-        <v>2.353114497394708</v>
+        <v>2.34392264388926</v>
       </c>
       <c r="D192" t="n">
-        <v>134.1176470588235</v>
+        <v>133.59375</v>
       </c>
       <c r="E192" t="n">
-        <v>134.8235294117647</v>
+        <v>134.296875</v>
       </c>
     </row>
     <row r="193">
@@ -3712,16 +3712,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2.353114497394708</v>
+        <v>2.34392264388926</v>
       </c>
       <c r="C193" t="n">
-        <v>2.365434468585256</v>
+        <v>2.356194490192345</v>
       </c>
       <c r="D193" t="n">
-        <v>134.8235294117647</v>
+        <v>134.296875</v>
       </c>
       <c r="E193" t="n">
-        <v>135.5294117647059</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.365434468585256</v>
+        <v>2.356194490192345</v>
       </c>
       <c r="C194" t="n">
-        <v>2.377754439775804</v>
+        <v>2.36846633649543</v>
       </c>
       <c r="D194" t="n">
-        <v>135.5294117647059</v>
+        <v>135</v>
       </c>
       <c r="E194" t="n">
-        <v>136.235294117647</v>
+        <v>135.703125</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2.377754439775804</v>
+        <v>2.36846633649543</v>
       </c>
       <c r="C195" t="n">
-        <v>2.390074410966352</v>
+        <v>2.380738182798515</v>
       </c>
       <c r="D195" t="n">
-        <v>136.235294117647</v>
+        <v>135.703125</v>
       </c>
       <c r="E195" t="n">
-        <v>136.9411764705882</v>
+        <v>136.40625</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2.390074410966352</v>
+        <v>2.380738182798515</v>
       </c>
       <c r="C196" t="n">
-        <v>2.4023943821569</v>
+        <v>2.3930100291016</v>
       </c>
       <c r="D196" t="n">
-        <v>136.9411764705882</v>
+        <v>136.40625</v>
       </c>
       <c r="E196" t="n">
-        <v>137.6470588235294</v>
+        <v>137.109375</v>
       </c>
     </row>
     <row r="197">
@@ -3780,16 +3780,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2.4023943821569</v>
+        <v>2.3930100291016</v>
       </c>
       <c r="C197" t="n">
-        <v>2.414714353347449</v>
+        <v>2.405281875404685</v>
       </c>
       <c r="D197" t="n">
-        <v>137.6470588235294</v>
+        <v>137.109375</v>
       </c>
       <c r="E197" t="n">
-        <v>138.3529411764706</v>
+        <v>137.8125</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2.414714353347449</v>
+        <v>2.405281875404685</v>
       </c>
       <c r="C198" t="n">
-        <v>2.427034324537997</v>
+        <v>2.41755372170777</v>
       </c>
       <c r="D198" t="n">
-        <v>138.3529411764706</v>
+        <v>137.8125</v>
       </c>
       <c r="E198" t="n">
-        <v>139.0588235294117</v>
+        <v>138.515625</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2.427034324537997</v>
+        <v>2.41755372170777</v>
       </c>
       <c r="C199" t="n">
-        <v>2.439354295728545</v>
+        <v>2.429825568010856</v>
       </c>
       <c r="D199" t="n">
-        <v>139.0588235294117</v>
+        <v>138.515625</v>
       </c>
       <c r="E199" t="n">
-        <v>139.7647058823529</v>
+        <v>139.21875</v>
       </c>
     </row>
     <row r="200">
@@ -3831,16 +3831,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2.439354295728545</v>
+        <v>2.429825568010856</v>
       </c>
       <c r="C200" t="n">
-        <v>2.451674266919094</v>
+        <v>2.442097414313941</v>
       </c>
       <c r="D200" t="n">
-        <v>139.7647058823529</v>
+        <v>139.21875</v>
       </c>
       <c r="E200" t="n">
-        <v>140.4705882352941</v>
+        <v>139.921875</v>
       </c>
     </row>
     <row r="201">
@@ -3848,16 +3848,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2.451674266919094</v>
+        <v>2.442097414313941</v>
       </c>
       <c r="C201" t="n">
-        <v>2.463994238109642</v>
+        <v>2.454369260617026</v>
       </c>
       <c r="D201" t="n">
-        <v>140.4705882352941</v>
+        <v>139.921875</v>
       </c>
       <c r="E201" t="n">
-        <v>141.1764705882353</v>
+        <v>140.625</v>
       </c>
     </row>
     <row r="202">
@@ -3865,16 +3865,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2.463994238109642</v>
+        <v>2.454369260617026</v>
       </c>
       <c r="C202" t="n">
-        <v>2.47631420930019</v>
+        <v>2.466641106920111</v>
       </c>
       <c r="D202" t="n">
-        <v>141.1764705882353</v>
+        <v>140.625</v>
       </c>
       <c r="E202" t="n">
-        <v>141.8823529411765</v>
+        <v>141.328125</v>
       </c>
     </row>
     <row r="203">
@@ -3882,16 +3882,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2.47631420930019</v>
+        <v>2.466641106920111</v>
       </c>
       <c r="C203" t="n">
-        <v>2.488634180490738</v>
+        <v>2.478912953223196</v>
       </c>
       <c r="D203" t="n">
-        <v>141.8823529411765</v>
+        <v>141.328125</v>
       </c>
       <c r="E203" t="n">
-        <v>142.5882352941177</v>
+        <v>142.03125</v>
       </c>
     </row>
     <row r="204">
@@ -3899,16 +3899,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2.488634180490738</v>
+        <v>2.478912953223196</v>
       </c>
       <c r="C204" t="n">
-        <v>2.500954151681286</v>
+        <v>2.491184799526281</v>
       </c>
       <c r="D204" t="n">
-        <v>142.5882352941177</v>
+        <v>142.03125</v>
       </c>
       <c r="E204" t="n">
-        <v>143.2941176470588</v>
+        <v>142.734375</v>
       </c>
     </row>
     <row r="205">
@@ -3916,16 +3916,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2.500954151681286</v>
+        <v>2.491184799526281</v>
       </c>
       <c r="C205" t="n">
-        <v>2.513274122871834</v>
+        <v>2.503456645829366</v>
       </c>
       <c r="D205" t="n">
-        <v>143.2941176470588</v>
+        <v>142.734375</v>
       </c>
       <c r="E205" t="n">
-        <v>144</v>
+        <v>143.4375</v>
       </c>
     </row>
     <row r="206">
@@ -3933,16 +3933,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2.513274122871834</v>
+        <v>2.503456645829366</v>
       </c>
       <c r="C206" t="n">
-        <v>2.525594094062383</v>
+        <v>2.515728492132451</v>
       </c>
       <c r="D206" t="n">
-        <v>144</v>
+        <v>143.4375</v>
       </c>
       <c r="E206" t="n">
-        <v>144.7058823529412</v>
+        <v>144.140625</v>
       </c>
     </row>
     <row r="207">
@@ -3950,16 +3950,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.525594094062383</v>
+        <v>2.515728492132451</v>
       </c>
       <c r="C207" t="n">
-        <v>2.537914065252931</v>
+        <v>2.528000338435537</v>
       </c>
       <c r="D207" t="n">
-        <v>144.7058823529412</v>
+        <v>144.140625</v>
       </c>
       <c r="E207" t="n">
-        <v>145.4117647058823</v>
+        <v>144.84375</v>
       </c>
     </row>
     <row r="208">
@@ -3967,16 +3967,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.537914065252931</v>
+        <v>2.528000338435537</v>
       </c>
       <c r="C208" t="n">
-        <v>2.550234036443479</v>
+        <v>2.540272184738622</v>
       </c>
       <c r="D208" t="n">
-        <v>145.4117647058823</v>
+        <v>144.84375</v>
       </c>
       <c r="E208" t="n">
-        <v>146.1176470588235</v>
+        <v>145.546875</v>
       </c>
     </row>
     <row r="209">
@@ -3984,16 +3984,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.550234036443479</v>
+        <v>2.540272184738622</v>
       </c>
       <c r="C209" t="n">
-        <v>2.562554007634027</v>
+        <v>2.552544031041707</v>
       </c>
       <c r="D209" t="n">
-        <v>146.1176470588235</v>
+        <v>145.546875</v>
       </c>
       <c r="E209" t="n">
-        <v>146.8235294117647</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="210">
@@ -4001,16 +4001,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2.562554007634027</v>
+        <v>2.552544031041707</v>
       </c>
       <c r="C210" t="n">
-        <v>2.574873978824575</v>
+        <v>2.564815877344792</v>
       </c>
       <c r="D210" t="n">
-        <v>146.8235294117647</v>
+        <v>146.25</v>
       </c>
       <c r="E210" t="n">
-        <v>147.5294117647059</v>
+        <v>146.953125</v>
       </c>
     </row>
     <row r="211">
@@ -4018,16 +4018,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2.574873978824575</v>
+        <v>2.564815877344792</v>
       </c>
       <c r="C211" t="n">
-        <v>2.587193950015124</v>
+        <v>2.577087723647877</v>
       </c>
       <c r="D211" t="n">
-        <v>147.5294117647059</v>
+        <v>146.953125</v>
       </c>
       <c r="E211" t="n">
-        <v>148.235294117647</v>
+        <v>147.65625</v>
       </c>
     </row>
     <row r="212">
@@ -4035,16 +4035,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2.587193950015124</v>
+        <v>2.577087723647877</v>
       </c>
       <c r="C212" t="n">
-        <v>2.599513921205672</v>
+        <v>2.589359569950962</v>
       </c>
       <c r="D212" t="n">
-        <v>148.235294117647</v>
+        <v>147.65625</v>
       </c>
       <c r="E212" t="n">
-        <v>148.9411764705882</v>
+        <v>148.359375</v>
       </c>
     </row>
     <row r="213">
@@ -4052,16 +4052,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2.599513921205672</v>
+        <v>2.589359569950962</v>
       </c>
       <c r="C213" t="n">
-        <v>2.61183389239622</v>
+        <v>2.601631416254047</v>
       </c>
       <c r="D213" t="n">
-        <v>148.9411764705882</v>
+        <v>148.359375</v>
       </c>
       <c r="E213" t="n">
-        <v>149.6470588235294</v>
+        <v>149.0625</v>
       </c>
     </row>
     <row r="214">
@@ -4069,16 +4069,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2.61183389239622</v>
+        <v>2.601631416254047</v>
       </c>
       <c r="C214" t="n">
-        <v>2.624153863586768</v>
+        <v>2.613903262557133</v>
       </c>
       <c r="D214" t="n">
-        <v>149.6470588235294</v>
+        <v>149.0625</v>
       </c>
       <c r="E214" t="n">
-        <v>150.3529411764706</v>
+        <v>149.765625</v>
       </c>
     </row>
     <row r="215">
@@ -4086,16 +4086,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2.624153863586768</v>
+        <v>2.613903262557133</v>
       </c>
       <c r="C215" t="n">
-        <v>2.636473834777317</v>
+        <v>2.626175108860218</v>
       </c>
       <c r="D215" t="n">
-        <v>150.3529411764706</v>
+        <v>149.765625</v>
       </c>
       <c r="E215" t="n">
-        <v>151.0588235294118</v>
+        <v>150.46875</v>
       </c>
     </row>
     <row r="216">
@@ -4103,16 +4103,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2.636473834777317</v>
+        <v>2.626175108860218</v>
       </c>
       <c r="C216" t="n">
-        <v>2.648793805967865</v>
+        <v>2.638446955163303</v>
       </c>
       <c r="D216" t="n">
-        <v>151.0588235294118</v>
+        <v>150.46875</v>
       </c>
       <c r="E216" t="n">
-        <v>151.764705882353</v>
+        <v>151.171875</v>
       </c>
     </row>
     <row r="217">
@@ -4120,16 +4120,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2.648793805967865</v>
+        <v>2.638446955163303</v>
       </c>
       <c r="C217" t="n">
-        <v>2.661113777158413</v>
+        <v>2.650718801466388</v>
       </c>
       <c r="D217" t="n">
-        <v>151.764705882353</v>
+        <v>151.171875</v>
       </c>
       <c r="E217" t="n">
-        <v>152.4705882352941</v>
+        <v>151.875</v>
       </c>
     </row>
     <row r="218">
@@ -4137,16 +4137,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2.661113777158413</v>
+        <v>2.650718801466388</v>
       </c>
       <c r="C218" t="n">
-        <v>2.673433748348961</v>
+        <v>2.662990647769473</v>
       </c>
       <c r="D218" t="n">
-        <v>152.4705882352941</v>
+        <v>151.875</v>
       </c>
       <c r="E218" t="n">
-        <v>153.1764705882353</v>
+        <v>152.578125</v>
       </c>
     </row>
     <row r="219">
@@ -4154,16 +4154,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2.673433748348961</v>
+        <v>2.662990647769473</v>
       </c>
       <c r="C219" t="n">
-        <v>2.685753719539509</v>
+        <v>2.675262494072558</v>
       </c>
       <c r="D219" t="n">
-        <v>153.1764705882353</v>
+        <v>152.578125</v>
       </c>
       <c r="E219" t="n">
-        <v>153.8823529411765</v>
+        <v>153.28125</v>
       </c>
     </row>
     <row r="220">
@@ -4171,16 +4171,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2.685753719539509</v>
+        <v>2.675262494072558</v>
       </c>
       <c r="C220" t="n">
-        <v>2.698073690730058</v>
+        <v>2.687534340375644</v>
       </c>
       <c r="D220" t="n">
-        <v>153.8823529411765</v>
+        <v>153.28125</v>
       </c>
       <c r="E220" t="n">
-        <v>154.5882352941177</v>
+        <v>153.984375</v>
       </c>
     </row>
     <row r="221">
@@ -4188,16 +4188,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2.698073690730058</v>
+        <v>2.687534340375644</v>
       </c>
       <c r="C221" t="n">
-        <v>2.710393661920606</v>
+        <v>2.699806186678729</v>
       </c>
       <c r="D221" t="n">
-        <v>154.5882352941177</v>
+        <v>153.984375</v>
       </c>
       <c r="E221" t="n">
-        <v>155.2941176470588</v>
+        <v>154.6875</v>
       </c>
     </row>
     <row r="222">
@@ -4205,16 +4205,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2.710393661920606</v>
+        <v>2.699806186678729</v>
       </c>
       <c r="C222" t="n">
-        <v>2.722713633111154</v>
+        <v>2.712078032981814</v>
       </c>
       <c r="D222" t="n">
-        <v>155.2941176470588</v>
+        <v>154.6875</v>
       </c>
       <c r="E222" t="n">
-        <v>156</v>
+        <v>155.390625</v>
       </c>
     </row>
     <row r="223">
@@ -4222,16 +4222,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2.722713633111154</v>
+        <v>2.712078032981814</v>
       </c>
       <c r="C223" t="n">
-        <v>2.735033604301702</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="D223" t="n">
-        <v>156</v>
+        <v>155.390625</v>
       </c>
       <c r="E223" t="n">
-        <v>156.7058823529412</v>
+        <v>156.09375</v>
       </c>
     </row>
     <row r="224">
@@ -4239,16 +4239,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2.735033604301702</v>
+        <v>2.724349879284899</v>
       </c>
       <c r="C224" t="n">
-        <v>2.74735357549225</v>
+        <v>2.736621725587984</v>
       </c>
       <c r="D224" t="n">
-        <v>156.7058823529412</v>
+        <v>156.09375</v>
       </c>
       <c r="E224" t="n">
-        <v>157.4117647058823</v>
+        <v>156.796875</v>
       </c>
     </row>
     <row r="225">
@@ -4256,16 +4256,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2.74735357549225</v>
+        <v>2.736621725587984</v>
       </c>
       <c r="C225" t="n">
-        <v>2.759673546682799</v>
+        <v>2.748893571891069</v>
       </c>
       <c r="D225" t="n">
-        <v>157.4117647058823</v>
+        <v>156.796875</v>
       </c>
       <c r="E225" t="n">
-        <v>158.1176470588235</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="226">
@@ -4273,16 +4273,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2.759673546682799</v>
+        <v>2.748893571891069</v>
       </c>
       <c r="C226" t="n">
-        <v>2.771993517873347</v>
+        <v>2.761165418194154</v>
       </c>
       <c r="D226" t="n">
-        <v>158.1176470588235</v>
+        <v>157.5</v>
       </c>
       <c r="E226" t="n">
-        <v>158.8235294117647</v>
+        <v>158.203125</v>
       </c>
     </row>
     <row r="227">
@@ -4290,16 +4290,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2.771993517873347</v>
+        <v>2.761165418194154</v>
       </c>
       <c r="C227" t="n">
-        <v>2.784313489063895</v>
+        <v>2.773437264497239</v>
       </c>
       <c r="D227" t="n">
-        <v>158.8235294117647</v>
+        <v>158.203125</v>
       </c>
       <c r="E227" t="n">
-        <v>159.5294117647059</v>
+        <v>158.90625</v>
       </c>
     </row>
     <row r="228">
@@ -4307,16 +4307,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2.784313489063895</v>
+        <v>2.773437264497239</v>
       </c>
       <c r="C228" t="n">
-        <v>2.796633460254443</v>
+        <v>2.785709110800324</v>
       </c>
       <c r="D228" t="n">
-        <v>159.5294117647059</v>
+        <v>158.90625</v>
       </c>
       <c r="E228" t="n">
-        <v>160.2352941176471</v>
+        <v>159.609375</v>
       </c>
     </row>
     <row r="229">
@@ -4324,16 +4324,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2.796633460254443</v>
+        <v>2.785709110800324</v>
       </c>
       <c r="C229" t="n">
-        <v>2.808953431444992</v>
+        <v>2.797980957103409</v>
       </c>
       <c r="D229" t="n">
-        <v>160.2352941176471</v>
+        <v>159.609375</v>
       </c>
       <c r="E229" t="n">
-        <v>160.9411764705882</v>
+        <v>160.3125</v>
       </c>
     </row>
     <row r="230">
@@ -4341,16 +4341,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2.808953431444992</v>
+        <v>2.797980957103409</v>
       </c>
       <c r="C230" t="n">
-        <v>2.82127340263554</v>
+        <v>2.810252803406494</v>
       </c>
       <c r="D230" t="n">
-        <v>160.9411764705882</v>
+        <v>160.3125</v>
       </c>
       <c r="E230" t="n">
-        <v>161.6470588235294</v>
+        <v>161.015625</v>
       </c>
     </row>
     <row r="231">
@@ -4358,16 +4358,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2.82127340263554</v>
+        <v>2.810252803406494</v>
       </c>
       <c r="C231" t="n">
-        <v>2.833593373826088</v>
+        <v>2.82252464970958</v>
       </c>
       <c r="D231" t="n">
-        <v>161.6470588235294</v>
+        <v>161.015625</v>
       </c>
       <c r="E231" t="n">
-        <v>162.3529411764706</v>
+        <v>161.71875</v>
       </c>
     </row>
     <row r="232">
@@ -4375,16 +4375,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>2.833593373826088</v>
+        <v>2.82252464970958</v>
       </c>
       <c r="C232" t="n">
-        <v>2.845913345016636</v>
+        <v>2.834796496012665</v>
       </c>
       <c r="D232" t="n">
-        <v>162.3529411764706</v>
+        <v>161.71875</v>
       </c>
       <c r="E232" t="n">
-        <v>163.0588235294118</v>
+        <v>162.421875</v>
       </c>
     </row>
     <row r="233">
@@ -4392,16 +4392,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>2.845913345016636</v>
+        <v>2.834796496012665</v>
       </c>
       <c r="C233" t="n">
-        <v>2.858233316207184</v>
+        <v>2.84706834231575</v>
       </c>
       <c r="D233" t="n">
-        <v>163.0588235294118</v>
+        <v>162.421875</v>
       </c>
       <c r="E233" t="n">
-        <v>163.7647058823529</v>
+        <v>163.125</v>
       </c>
     </row>
     <row r="234">
@@ -4409,16 +4409,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>2.858233316207184</v>
+        <v>2.84706834231575</v>
       </c>
       <c r="C234" t="n">
-        <v>2.870553287397732</v>
+        <v>2.859340188618835</v>
       </c>
       <c r="D234" t="n">
-        <v>163.7647058823529</v>
+        <v>163.125</v>
       </c>
       <c r="E234" t="n">
-        <v>164.4705882352941</v>
+        <v>163.828125</v>
       </c>
     </row>
     <row r="235">
@@ -4426,16 +4426,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2.870553287397732</v>
+        <v>2.859340188618835</v>
       </c>
       <c r="C235" t="n">
-        <v>2.882873258588281</v>
+        <v>2.87161203492192</v>
       </c>
       <c r="D235" t="n">
-        <v>164.4705882352941</v>
+        <v>163.828125</v>
       </c>
       <c r="E235" t="n">
-        <v>165.1764705882353</v>
+        <v>164.53125</v>
       </c>
     </row>
     <row r="236">
@@ -4443,16 +4443,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2.882873258588281</v>
+        <v>2.87161203492192</v>
       </c>
       <c r="C236" t="n">
-        <v>2.895193229778829</v>
+        <v>2.883883881225005</v>
       </c>
       <c r="D236" t="n">
-        <v>165.1764705882353</v>
+        <v>164.53125</v>
       </c>
       <c r="E236" t="n">
-        <v>165.8823529411765</v>
+        <v>165.234375</v>
       </c>
     </row>
     <row r="237">
@@ -4460,16 +4460,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2.895193229778829</v>
+        <v>2.883883881225005</v>
       </c>
       <c r="C237" t="n">
-        <v>2.907513200969377</v>
+        <v>2.89615572752809</v>
       </c>
       <c r="D237" t="n">
-        <v>165.8823529411765</v>
+        <v>165.234375</v>
       </c>
       <c r="E237" t="n">
-        <v>166.5882352941176</v>
+        <v>165.9375</v>
       </c>
     </row>
     <row r="238">
@@ -4477,16 +4477,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2.907513200969377</v>
+        <v>2.89615572752809</v>
       </c>
       <c r="C238" t="n">
-        <v>2.919833172159926</v>
+        <v>2.908427573831176</v>
       </c>
       <c r="D238" t="n">
-        <v>166.5882352941176</v>
+        <v>165.9375</v>
       </c>
       <c r="E238" t="n">
-        <v>167.2941176470588</v>
+        <v>166.640625</v>
       </c>
     </row>
     <row r="239">
@@ -4494,16 +4494,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2.919833172159926</v>
+        <v>2.908427573831176</v>
       </c>
       <c r="C239" t="n">
-        <v>2.932153143350474</v>
+        <v>2.920699420134261</v>
       </c>
       <c r="D239" t="n">
-        <v>167.2941176470588</v>
+        <v>166.640625</v>
       </c>
       <c r="E239" t="n">
-        <v>168</v>
+        <v>167.34375</v>
       </c>
     </row>
     <row r="240">
@@ -4511,16 +4511,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2.932153143350474</v>
+        <v>2.920699420134261</v>
       </c>
       <c r="C240" t="n">
-        <v>2.944473114541022</v>
+        <v>2.932971266437346</v>
       </c>
       <c r="D240" t="n">
-        <v>168</v>
+        <v>167.34375</v>
       </c>
       <c r="E240" t="n">
-        <v>168.7058823529412</v>
+        <v>168.046875</v>
       </c>
     </row>
     <row r="241">
@@ -4528,16 +4528,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2.944473114541022</v>
+        <v>2.932971266437346</v>
       </c>
       <c r="C241" t="n">
-        <v>2.95679308573157</v>
+        <v>2.945243112740431</v>
       </c>
       <c r="D241" t="n">
-        <v>168.7058823529412</v>
+        <v>168.046875</v>
       </c>
       <c r="E241" t="n">
-        <v>169.4117647058823</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="242">
@@ -4545,16 +4545,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2.95679308573157</v>
+        <v>2.945243112740431</v>
       </c>
       <c r="C242" t="n">
-        <v>2.969113056922118</v>
+        <v>2.957514959043516</v>
       </c>
       <c r="D242" t="n">
-        <v>169.4117647058823</v>
+        <v>168.75</v>
       </c>
       <c r="E242" t="n">
-        <v>170.1176470588235</v>
+        <v>169.453125</v>
       </c>
     </row>
     <row r="243">
@@ -4562,16 +4562,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2.969113056922118</v>
+        <v>2.957514959043516</v>
       </c>
       <c r="C243" t="n">
-        <v>2.981433028112666</v>
+        <v>2.969786805346601</v>
       </c>
       <c r="D243" t="n">
-        <v>170.1176470588235</v>
+        <v>169.453125</v>
       </c>
       <c r="E243" t="n">
-        <v>170.8235294117647</v>
+        <v>170.15625</v>
       </c>
     </row>
     <row r="244">
@@ -4579,16 +4579,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2.981433028112666</v>
+        <v>2.969786805346601</v>
       </c>
       <c r="C244" t="n">
-        <v>2.993752999303215</v>
+        <v>2.982058651649687</v>
       </c>
       <c r="D244" t="n">
-        <v>170.8235294117647</v>
+        <v>170.15625</v>
       </c>
       <c r="E244" t="n">
-        <v>171.5294117647059</v>
+        <v>170.859375</v>
       </c>
     </row>
     <row r="245">
@@ -4596,16 +4596,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2.993752999303215</v>
+        <v>2.982058651649687</v>
       </c>
       <c r="C245" t="n">
-        <v>3.006072970493763</v>
+        <v>2.994330497952772</v>
       </c>
       <c r="D245" t="n">
-        <v>171.5294117647059</v>
+        <v>170.859375</v>
       </c>
       <c r="E245" t="n">
-        <v>172.235294117647</v>
+        <v>171.5625</v>
       </c>
     </row>
     <row r="246">
@@ -4613,16 +4613,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>3.006072970493763</v>
+        <v>2.994330497952772</v>
       </c>
       <c r="C246" t="n">
-        <v>3.018392941684311</v>
+        <v>3.006602344255857</v>
       </c>
       <c r="D246" t="n">
-        <v>172.235294117647</v>
+        <v>171.5625</v>
       </c>
       <c r="E246" t="n">
-        <v>172.9411764705882</v>
+        <v>172.265625</v>
       </c>
     </row>
     <row r="247">
@@ -4630,16 +4630,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>3.018392941684311</v>
+        <v>3.006602344255857</v>
       </c>
       <c r="C247" t="n">
-        <v>3.030712912874859</v>
+        <v>3.018874190558942</v>
       </c>
       <c r="D247" t="n">
-        <v>172.9411764705882</v>
+        <v>172.265625</v>
       </c>
       <c r="E247" t="n">
-        <v>173.6470588235294</v>
+        <v>172.96875</v>
       </c>
     </row>
     <row r="248">
@@ -4647,16 +4647,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>3.030712912874859</v>
+        <v>3.018874190558942</v>
       </c>
       <c r="C248" t="n">
-        <v>3.043032884065407</v>
+        <v>3.031146036862027</v>
       </c>
       <c r="D248" t="n">
-        <v>173.6470588235294</v>
+        <v>172.96875</v>
       </c>
       <c r="E248" t="n">
-        <v>174.3529411764706</v>
+        <v>173.671875</v>
       </c>
     </row>
     <row r="249">
@@ -4664,16 +4664,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>3.043032884065407</v>
+        <v>3.031146036862027</v>
       </c>
       <c r="C249" t="n">
-        <v>3.055352855255955</v>
+        <v>3.043417883165112</v>
       </c>
       <c r="D249" t="n">
-        <v>174.3529411764706</v>
+        <v>173.671875</v>
       </c>
       <c r="E249" t="n">
-        <v>175.0588235294117</v>
+        <v>174.375</v>
       </c>
     </row>
     <row r="250">
@@ -4681,16 +4681,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>3.055352855255955</v>
+        <v>3.043417883165112</v>
       </c>
       <c r="C250" t="n">
-        <v>3.067672826446504</v>
+        <v>3.055689729468197</v>
       </c>
       <c r="D250" t="n">
-        <v>175.0588235294117</v>
+        <v>174.375</v>
       </c>
       <c r="E250" t="n">
-        <v>175.7647058823529</v>
+        <v>175.078125</v>
       </c>
     </row>
     <row r="251">
@@ -4698,16 +4698,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>3.067672826446504</v>
+        <v>3.055689729468197</v>
       </c>
       <c r="C251" t="n">
-        <v>3.079992797637052</v>
+        <v>3.067961575771282</v>
       </c>
       <c r="D251" t="n">
-        <v>175.7647058823529</v>
+        <v>175.078125</v>
       </c>
       <c r="E251" t="n">
-        <v>176.4705882352941</v>
+        <v>175.78125</v>
       </c>
     </row>
     <row r="252">
@@ -4715,16 +4715,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>3.079992797637052</v>
+        <v>3.067961575771282</v>
       </c>
       <c r="C252" t="n">
-        <v>3.0923127688276</v>
+        <v>3.080233422074368</v>
       </c>
       <c r="D252" t="n">
-        <v>176.4705882352941</v>
+        <v>175.78125</v>
       </c>
       <c r="E252" t="n">
-        <v>177.1764705882353</v>
+        <v>176.484375</v>
       </c>
     </row>
     <row r="253">
@@ -4732,16 +4732,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>3.0923127688276</v>
+        <v>3.080233422074368</v>
       </c>
       <c r="C253" t="n">
-        <v>3.104632740018149</v>
+        <v>3.092505268377453</v>
       </c>
       <c r="D253" t="n">
-        <v>177.1764705882353</v>
+        <v>176.484375</v>
       </c>
       <c r="E253" t="n">
-        <v>177.8823529411765</v>
+        <v>177.1875</v>
       </c>
     </row>
     <row r="254">
@@ -4749,16 +4749,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>3.104632740018149</v>
+        <v>3.092505268377453</v>
       </c>
       <c r="C254" t="n">
-        <v>3.116952711208697</v>
+        <v>3.104777114680538</v>
       </c>
       <c r="D254" t="n">
-        <v>177.8823529411765</v>
+        <v>177.1875</v>
       </c>
       <c r="E254" t="n">
-        <v>178.5882352941177</v>
+        <v>177.890625</v>
       </c>
     </row>
     <row r="255">
@@ -4766,16 +4766,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>3.116952711208697</v>
+        <v>3.104777114680538</v>
       </c>
       <c r="C255" t="n">
-        <v>3.129272682399245</v>
+        <v>3.117048960983623</v>
       </c>
       <c r="D255" t="n">
-        <v>178.5882352941177</v>
+        <v>177.890625</v>
       </c>
       <c r="E255" t="n">
-        <v>179.2941176470588</v>
+        <v>178.59375</v>
       </c>
     </row>
     <row r="256">
@@ -4783,15 +4783,32 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>3.129272682399245</v>
+        <v>3.117048960983623</v>
       </c>
       <c r="C256" t="n">
+        <v>3.129320807286708</v>
+      </c>
+      <c r="D256" t="n">
+        <v>178.59375</v>
+      </c>
+      <c r="E256" t="n">
+        <v>179.296875</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.129320807286708</v>
+      </c>
+      <c r="C257" t="n">
         <v>3.141592653589793</v>
       </c>
-      <c r="D256" t="n">
-        <v>179.2941176470588</v>
-      </c>
-      <c r="E256" t="n">
+      <c r="D257" t="n">
+        <v>179.296875</v>
+      </c>
+      <c r="E257" t="n">
         <v>180</v>
       </c>
     </row>
